--- a/CommonGardenExperiment_2020Data/raw_data/Survival/2020_Datacollection7_Survival.xlsx
+++ b/CommonGardenExperiment_2020Data/raw_data/Survival/2020_Datacollection7_Survival.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\Chapter2_KSR\CommonGardenExperiment_2020Data\raw_data\Height\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbrei\Documents\R_Projects\chapter_two\CommonGardenExperiment_2020Data\raw_data\Survival\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E83C0-4CD9-427E-B971-6AF8AFFAD87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD71760C-E127-4B64-96FA-00837A096002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Protocol" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Z_DBD90379_3EC3_4B16_840F_2A89ED9418D2_.wvu.FilterData" localSheetId="0" hidden="1">Data!$A$1:$F$967</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -85,43 +84,6 @@
     <t>ramets dead</t>
   </si>
   <si>
-    <t>Measure from soil level up</t>
-  </si>
-  <si>
-    <t>Measure all ramets' heights</t>
-  </si>
-  <si>
-    <t>Go in this order: block 3, 4, 1/2 of 1, 1/2 of 2, remaining 1/2 of 1</t>
-  </si>
-  <si>
-    <t>Start from last plant of block and go backwards</t>
-  </si>
-  <si>
-    <t>noting growth rate as the height of all ramets combined, because they together represent the total biomass production of the plant</t>
-  </si>
-  <si>
-    <t>Herbivory: To quantify herbivory, individuals
-should mentally break a leaf into sections (e.g. halves,
-thirds, and quarters) and estimate damage to those sections
-separately.</t>
-  </si>
-  <si>
-    <t>recs from this paper: https://onlinelibrary.wiley.com/doi/pdf/10.1111/een.12280</t>
-  </si>
-  <si>
-    <t>We recommend 15–20 s per leaf</t>
-  </si>
-  <si>
-    <t>Measure all leaves? At least 4? What about if plant is totally decimated yet central veins still remain?</t>
-  </si>
-  <si>
-    <t>In August 2001 and 2002, I measured the percentage of leaves on all plants (n = 530) that had foliar damage due to chewing herbivores. I employed this rapid assay for assessing leaf damage because plants were very large (mean ± SE = 80 ± 2 leaves per plant in 2002). For each plant, the total number of leaves that had greater than 1 cm2
-removed by a chewing herbivore(s) was divided by the total number of leaves to obtain a herbivory index.</t>
-  </si>
-  <si>
-    <t>2020: if ramet leaning a lot (&gt;30°, measured length of ramet instead of height. only applicable if plant tall (&gt;70 cm), generally</t>
-  </si>
-  <si>
     <t>Dead</t>
   </si>
 </sst>
@@ -132,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -155,17 +117,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -181,21 +132,15 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -255,18 +200,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -301,19 +239,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +471,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -549,7 +481,7 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -577,8 +509,8 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>26</v>
+      <c r="I1" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -606,7 +538,7 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -635,7 +567,7 @@
       <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -664,7 +596,7 @@
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -693,7 +625,7 @@
       <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -722,7 +654,7 @@
       <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -751,7 +683,7 @@
       <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -780,7 +712,7 @@
       <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -809,7 +741,7 @@
       <c r="H9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -838,7 +770,7 @@
       <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -867,7 +799,7 @@
       <c r="H11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -896,7 +828,7 @@
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -925,7 +857,7 @@
       <c r="H13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -954,7 +886,7 @@
       <c r="H14" s="10">
         <v>43930</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="16">
         <v>1</v>
       </c>
     </row>
@@ -981,7 +913,7 @@
       <c r="H15" s="10">
         <v>43930</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1008,7 +940,7 @@
       <c r="H16" s="10">
         <v>43930</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1035,7 +967,7 @@
       <c r="H17" s="10">
         <v>43930</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1062,7 +994,7 @@
       <c r="H18" s="10">
         <v>43930</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1089,7 +1021,7 @@
       <c r="H19" s="10">
         <v>43930</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1116,7 +1048,7 @@
       <c r="H20" s="10">
         <v>43930</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1143,7 +1075,7 @@
       <c r="H21" s="10">
         <v>43930</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1170,7 +1102,7 @@
       <c r="H22" s="10">
         <v>43930</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1197,7 +1129,7 @@
       <c r="H23" s="10">
         <v>43930</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1224,7 +1156,7 @@
       <c r="H24" s="10">
         <v>43930</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1251,7 +1183,7 @@
       <c r="H25" s="10">
         <v>43930</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1278,7 +1210,7 @@
       <c r="H26" s="10">
         <v>43930</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1305,7 +1237,7 @@
       <c r="H27" s="10">
         <v>43930</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1332,7 +1264,7 @@
       <c r="H28" s="10">
         <v>43930</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1359,7 +1291,7 @@
       <c r="H29" s="10">
         <v>43930</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1386,7 +1318,7 @@
       <c r="H30" s="10">
         <v>43930</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1413,7 +1345,7 @@
       <c r="H31" s="10">
         <v>43930</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1440,7 +1372,7 @@
       <c r="H32" s="10">
         <v>43930</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1469,7 +1401,7 @@
       <c r="H33" s="10">
         <v>43930</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1496,7 +1428,7 @@
       <c r="H34" s="10">
         <v>43930</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1523,7 +1455,7 @@
       <c r="H35" s="10">
         <v>43930</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1550,7 +1482,7 @@
       <c r="H36" s="10">
         <v>43930</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1577,7 +1509,7 @@
       <c r="H37" s="10">
         <v>43930</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1536,7 @@
       <c r="H38" s="10">
         <v>43930</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1631,7 +1563,7 @@
       <c r="H39" s="10">
         <v>43930</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1658,7 +1590,7 @@
       <c r="H40" s="10">
         <v>43930</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1685,7 +1617,7 @@
       <c r="H41" s="10">
         <v>43930</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1712,7 +1644,7 @@
       <c r="H42" s="10">
         <v>43930</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1739,7 +1671,7 @@
       <c r="H43" s="10">
         <v>43930</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1766,7 +1698,7 @@
       <c r="H44" s="10">
         <v>43930</v>
       </c>
-      <c r="I44" s="22">
+      <c r="I44" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1793,7 +1725,7 @@
       <c r="H45" s="10">
         <v>43930</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1820,7 +1752,7 @@
       <c r="H46" s="10">
         <v>43930</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1847,7 +1779,7 @@
       <c r="H47" s="10">
         <v>43930</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1874,7 +1806,7 @@
       <c r="H48" s="10">
         <v>43930</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1901,7 +1833,7 @@
       <c r="H49" s="10">
         <v>43930</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1928,7 +1860,7 @@
       <c r="H50" s="10">
         <v>43930</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1955,7 +1887,7 @@
       <c r="H51" s="10">
         <v>43930</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1982,7 +1914,7 @@
       <c r="H52" s="10">
         <v>43930</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2009,7 +1941,7 @@
       <c r="H53" s="10">
         <v>43930</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2036,7 +1968,7 @@
       <c r="H54" s="10">
         <v>43930</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2063,7 +1995,7 @@
       <c r="H55" s="10">
         <v>43930</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2090,7 +2022,7 @@
       <c r="H56" s="10">
         <v>43930</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2117,7 +2049,7 @@
       <c r="H57" s="10">
         <v>43930</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2144,7 +2076,7 @@
       <c r="H58" s="10">
         <v>43930</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2171,7 +2103,7 @@
       <c r="H59" s="10">
         <v>43930</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2198,7 +2130,7 @@
       <c r="H60" s="10">
         <v>43930</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2225,7 +2157,7 @@
       <c r="H61" s="10">
         <v>43930</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2252,7 +2184,7 @@
       <c r="H62" s="10">
         <v>43930</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2279,7 +2211,7 @@
       <c r="H63" s="10">
         <v>43930</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2238,7 @@
       <c r="H64" s="10">
         <v>43930</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2333,7 +2265,7 @@
       <c r="H65" s="10">
         <v>43930</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2292,7 @@
       <c r="H66" s="10">
         <v>43930</v>
       </c>
-      <c r="I66" s="22">
+      <c r="I66" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2387,7 +2319,7 @@
       <c r="H67" s="10">
         <v>43930</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I67" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2414,7 +2346,7 @@
       <c r="H68" s="10">
         <v>43930</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I68" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2441,7 +2373,7 @@
       <c r="H69" s="10">
         <v>43930</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2468,7 +2400,7 @@
       <c r="H70" s="10">
         <v>43930</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2495,7 +2427,7 @@
       <c r="H71" s="10">
         <v>43930</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2522,7 +2454,7 @@
       <c r="H72" s="10">
         <v>43930</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2549,7 +2481,7 @@
       <c r="H73" s="10">
         <v>43930</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2578,7 +2510,7 @@
       <c r="H74" s="10">
         <v>43930</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2605,7 +2537,7 @@
       <c r="H75" s="10">
         <v>43930</v>
       </c>
-      <c r="I75" s="22">
+      <c r="I75" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2632,7 +2564,7 @@
       <c r="H76" s="10">
         <v>43930</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2659,7 +2591,7 @@
       <c r="H77" s="10">
         <v>43930</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I77" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2686,7 +2618,7 @@
       <c r="H78" s="10">
         <v>43930</v>
       </c>
-      <c r="I78" s="22">
+      <c r="I78" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2713,7 +2645,7 @@
       <c r="H79" s="10">
         <v>43930</v>
       </c>
-      <c r="I79" s="22">
+      <c r="I79" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2740,7 +2672,7 @@
       <c r="H80" s="10">
         <v>43930</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I80" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2767,7 +2699,7 @@
       <c r="H81" s="10">
         <v>43930</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2794,7 +2726,7 @@
       <c r="H82" s="10">
         <v>43930</v>
       </c>
-      <c r="I82" s="22">
+      <c r="I82" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2821,7 +2753,7 @@
       <c r="H83" s="10">
         <v>43930</v>
       </c>
-      <c r="I83" s="22">
+      <c r="I83" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2848,7 +2780,7 @@
       <c r="H84" s="10">
         <v>43930</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I84" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2875,7 +2807,7 @@
       <c r="H85" s="10">
         <v>43930</v>
       </c>
-      <c r="I85" s="22">
+      <c r="I85" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2902,7 +2834,7 @@
       <c r="H86" s="10">
         <v>43930</v>
       </c>
-      <c r="I86" s="22">
+      <c r="I86" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2929,7 +2861,7 @@
       <c r="H87" s="10">
         <v>43930</v>
       </c>
-      <c r="I87" s="22">
+      <c r="I87" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +2888,7 @@
       <c r="H88" s="10">
         <v>43930</v>
       </c>
-      <c r="I88" s="22">
+      <c r="I88" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2983,7 +2915,7 @@
       <c r="H89" s="10">
         <v>43930</v>
       </c>
-      <c r="I89" s="22">
+      <c r="I89" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3010,7 +2942,7 @@
       <c r="H90" s="10">
         <v>43930</v>
       </c>
-      <c r="I90" s="22">
+      <c r="I90" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3037,7 +2969,7 @@
       <c r="H91" s="10">
         <v>43930</v>
       </c>
-      <c r="I91" s="22">
+      <c r="I91" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3064,7 +2996,7 @@
       <c r="H92" s="10">
         <v>43930</v>
       </c>
-      <c r="I92" s="22">
+      <c r="I92" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3091,7 +3023,7 @@
       <c r="H93" s="10">
         <v>43930</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I93" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3118,7 +3050,7 @@
       <c r="H94" s="10">
         <v>43930</v>
       </c>
-      <c r="I94" s="22">
+      <c r="I94" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3145,7 +3077,7 @@
       <c r="H95" s="10">
         <v>43930</v>
       </c>
-      <c r="I95" s="22">
+      <c r="I95" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3172,7 +3104,7 @@
       <c r="H96" s="10">
         <v>43930</v>
       </c>
-      <c r="I96" s="22">
+      <c r="I96" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3199,7 +3131,7 @@
       <c r="H97" s="10">
         <v>43930</v>
       </c>
-      <c r="I97" s="22">
+      <c r="I97" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3226,7 +3158,7 @@
       <c r="H98" s="10">
         <v>43930</v>
       </c>
-      <c r="I98" s="22">
+      <c r="I98" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3253,7 +3185,7 @@
       <c r="H99" s="10">
         <v>43930</v>
       </c>
-      <c r="I99" s="22">
+      <c r="I99" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3280,7 +3212,7 @@
       <c r="H100" s="10">
         <v>43930</v>
       </c>
-      <c r="I100" s="22">
+      <c r="I100" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3307,7 +3239,7 @@
       <c r="H101" s="10">
         <v>43930</v>
       </c>
-      <c r="I101" s="22">
+      <c r="I101" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3334,7 +3266,7 @@
       <c r="H102" s="10">
         <v>43930</v>
       </c>
-      <c r="I102" s="22">
+      <c r="I102" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3361,7 +3293,7 @@
       <c r="H103" s="10">
         <v>43930</v>
       </c>
-      <c r="I103" s="22">
+      <c r="I103" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3388,7 +3320,7 @@
       <c r="H104" s="10">
         <v>43930</v>
       </c>
-      <c r="I104" s="22">
+      <c r="I104" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3415,7 +3347,7 @@
       <c r="H105" s="10">
         <v>43930</v>
       </c>
-      <c r="I105" s="22">
+      <c r="I105" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3442,7 +3374,7 @@
       <c r="H106" s="10">
         <v>43930</v>
       </c>
-      <c r="I106" s="22">
+      <c r="I106" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3469,7 +3401,7 @@
       <c r="H107" s="10">
         <v>43930</v>
       </c>
-      <c r="I107" s="22">
+      <c r="I107" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3496,7 +3428,7 @@
       <c r="H108" s="10">
         <v>43930</v>
       </c>
-      <c r="I108" s="22">
+      <c r="I108" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3523,7 +3455,7 @@
       <c r="H109" s="10">
         <v>43930</v>
       </c>
-      <c r="I109" s="22">
+      <c r="I109" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3550,7 +3482,7 @@
       <c r="H110" s="10">
         <v>43930</v>
       </c>
-      <c r="I110" s="22">
+      <c r="I110" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3577,7 +3509,7 @@
       <c r="H111" s="10">
         <v>43930</v>
       </c>
-      <c r="I111" s="22">
+      <c r="I111" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3604,7 +3536,7 @@
       <c r="H112" s="10">
         <v>43930</v>
       </c>
-      <c r="I112" s="22">
+      <c r="I112" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3631,7 +3563,7 @@
       <c r="H113" s="10">
         <v>43930</v>
       </c>
-      <c r="I113" s="22">
+      <c r="I113" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3658,7 +3590,7 @@
       <c r="H114" s="10">
         <v>43930</v>
       </c>
-      <c r="I114" s="22">
+      <c r="I114" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3685,7 +3617,7 @@
       <c r="H115" s="10">
         <v>43930</v>
       </c>
-      <c r="I115" s="22">
+      <c r="I115" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3712,7 +3644,7 @@
       <c r="H116" s="10">
         <v>43930</v>
       </c>
-      <c r="I116" s="22">
+      <c r="I116" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3739,7 +3671,7 @@
       <c r="H117" s="10">
         <v>43899</v>
       </c>
-      <c r="I117" s="22">
+      <c r="I117" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3766,7 +3698,7 @@
       <c r="H118" s="10">
         <v>43899</v>
       </c>
-      <c r="I118" s="22">
+      <c r="I118" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3793,7 +3725,7 @@
       <c r="H119" s="10">
         <v>43899</v>
       </c>
-      <c r="I119" s="22">
+      <c r="I119" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3820,7 +3752,7 @@
       <c r="H120" s="10">
         <v>43899</v>
       </c>
-      <c r="I120" s="22">
+      <c r="I120" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3847,7 +3779,7 @@
       <c r="H121" s="10">
         <v>43899</v>
       </c>
-      <c r="I121" s="22">
+      <c r="I121" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3874,7 +3806,7 @@
       <c r="H122" s="10">
         <v>43899</v>
       </c>
-      <c r="I122" s="22">
+      <c r="I122" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3901,7 +3833,7 @@
       <c r="H123" s="10">
         <v>43899</v>
       </c>
-      <c r="I123" s="22">
+      <c r="I123" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3928,7 +3860,7 @@
       <c r="H124" s="10">
         <v>43899</v>
       </c>
-      <c r="I124" s="22">
+      <c r="I124" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3955,7 +3887,7 @@
       <c r="H125" s="10">
         <v>43899</v>
       </c>
-      <c r="I125" s="22">
+      <c r="I125" s="16">
         <v>1</v>
       </c>
     </row>
@@ -3982,7 +3914,7 @@
       <c r="H126" s="10">
         <v>43899</v>
       </c>
-      <c r="I126" s="22">
+      <c r="I126" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4009,7 +3941,7 @@
       <c r="H127" s="10">
         <v>43899</v>
       </c>
-      <c r="I127" s="22">
+      <c r="I127" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4036,7 +3968,7 @@
       <c r="H128" s="10">
         <v>43899</v>
       </c>
-      <c r="I128" s="22">
+      <c r="I128" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4063,7 +3995,7 @@
       <c r="H129" s="10">
         <v>43899</v>
       </c>
-      <c r="I129" s="22">
+      <c r="I129" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4090,7 +4022,7 @@
       <c r="H130" s="10">
         <v>43899</v>
       </c>
-      <c r="I130" s="22">
+      <c r="I130" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4117,7 +4049,7 @@
       <c r="H131" s="10">
         <v>43899</v>
       </c>
-      <c r="I131" s="22">
+      <c r="I131" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4144,7 +4076,7 @@
       <c r="H132" s="10">
         <v>43899</v>
       </c>
-      <c r="I132" s="22">
+      <c r="I132" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4171,7 +4103,7 @@
       <c r="H133" s="10">
         <v>43899</v>
       </c>
-      <c r="I133" s="22">
+      <c r="I133" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4198,7 +4130,7 @@
       <c r="H134" s="10">
         <v>43899</v>
       </c>
-      <c r="I134" s="22">
+      <c r="I134" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4225,7 +4157,7 @@
       <c r="H135" s="10">
         <v>43899</v>
       </c>
-      <c r="I135" s="22">
+      <c r="I135" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4252,7 +4184,7 @@
       <c r="H136" s="10">
         <v>43899</v>
       </c>
-      <c r="I136" s="22">
+      <c r="I136" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4279,7 +4211,7 @@
       <c r="H137" s="10">
         <v>43899</v>
       </c>
-      <c r="I137" s="22">
+      <c r="I137" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4306,7 +4238,7 @@
       <c r="H138" s="10">
         <v>43899</v>
       </c>
-      <c r="I138" s="22">
+      <c r="I138" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4333,7 +4265,7 @@
       <c r="H139" s="10">
         <v>43899</v>
       </c>
-      <c r="I139" s="22">
+      <c r="I139" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4360,7 +4292,7 @@
       <c r="H140" s="10">
         <v>43899</v>
       </c>
-      <c r="I140" s="22">
+      <c r="I140" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4387,7 +4319,7 @@
       <c r="H141" s="10">
         <v>43899</v>
       </c>
-      <c r="I141" s="22">
+      <c r="I141" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4414,7 +4346,7 @@
       <c r="H142" s="10">
         <v>43899</v>
       </c>
-      <c r="I142" s="22">
+      <c r="I142" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4441,7 +4373,7 @@
       <c r="H143" s="10">
         <v>43899</v>
       </c>
-      <c r="I143" s="22">
+      <c r="I143" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4468,7 +4400,7 @@
       <c r="H144" s="10">
         <v>43899</v>
       </c>
-      <c r="I144" s="22">
+      <c r="I144" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4495,7 +4427,7 @@
       <c r="H145" s="10">
         <v>43899</v>
       </c>
-      <c r="I145" s="22">
+      <c r="I145" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4522,7 +4454,7 @@
       <c r="H146" s="10">
         <v>43899</v>
       </c>
-      <c r="I146" s="22">
+      <c r="I146" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4549,7 +4481,7 @@
       <c r="H147" s="10">
         <v>43899</v>
       </c>
-      <c r="I147" s="22">
+      <c r="I147" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4576,7 +4508,7 @@
       <c r="H148" s="10">
         <v>43899</v>
       </c>
-      <c r="I148" s="22">
+      <c r="I148" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4603,7 +4535,7 @@
       <c r="H149" s="10">
         <v>43899</v>
       </c>
-      <c r="I149" s="22">
+      <c r="I149" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4630,7 +4562,7 @@
       <c r="H150" s="10">
         <v>43899</v>
       </c>
-      <c r="I150" s="22">
+      <c r="I150" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4657,7 +4589,7 @@
       <c r="H151" s="10">
         <v>43899</v>
       </c>
-      <c r="I151" s="22">
+      <c r="I151" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4684,7 +4616,7 @@
       <c r="H152" s="10">
         <v>43899</v>
       </c>
-      <c r="I152" s="22">
+      <c r="I152" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4711,7 +4643,7 @@
       <c r="H153" s="10">
         <v>43899</v>
       </c>
-      <c r="I153" s="22">
+      <c r="I153" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4738,7 +4670,7 @@
       <c r="H154" s="10">
         <v>43899</v>
       </c>
-      <c r="I154" s="22">
+      <c r="I154" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4765,7 +4697,7 @@
       <c r="H155" s="10">
         <v>43899</v>
       </c>
-      <c r="I155" s="22">
+      <c r="I155" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4792,7 +4724,7 @@
       <c r="H156" s="10">
         <v>43899</v>
       </c>
-      <c r="I156" s="22">
+      <c r="I156" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4819,7 +4751,7 @@
       <c r="H157" s="10">
         <v>43899</v>
       </c>
-      <c r="I157" s="22">
+      <c r="I157" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4846,7 +4778,7 @@
       <c r="H158" s="10">
         <v>43899</v>
       </c>
-      <c r="I158" s="22">
+      <c r="I158" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4873,7 +4805,7 @@
       <c r="H159" s="10">
         <v>43899</v>
       </c>
-      <c r="I159" s="22">
+      <c r="I159" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4900,7 +4832,7 @@
       <c r="H160" s="10">
         <v>43899</v>
       </c>
-      <c r="I160" s="22">
+      <c r="I160" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4927,7 +4859,7 @@
       <c r="H161" s="10">
         <v>43899</v>
       </c>
-      <c r="I161" s="22">
+      <c r="I161" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4954,7 +4886,7 @@
       <c r="H162" s="10">
         <v>43899</v>
       </c>
-      <c r="I162" s="22">
+      <c r="I162" s="16">
         <v>0</v>
       </c>
     </row>
@@ -4981,7 +4913,7 @@
       <c r="H163" s="10">
         <v>43899</v>
       </c>
-      <c r="I163" s="22">
+      <c r="I163" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5008,7 +4940,7 @@
       <c r="H164" s="10">
         <v>43899</v>
       </c>
-      <c r="I164" s="22">
+      <c r="I164" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5035,7 +4967,7 @@
       <c r="H165" s="10">
         <v>43899</v>
       </c>
-      <c r="I165" s="22">
+      <c r="I165" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5062,7 +4994,7 @@
       <c r="H166" s="10">
         <v>43899</v>
       </c>
-      <c r="I166" s="22">
+      <c r="I166" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5089,7 +5021,7 @@
       <c r="H167" s="10">
         <v>43899</v>
       </c>
-      <c r="I167" s="22">
+      <c r="I167" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5116,7 +5048,7 @@
       <c r="H168" s="10">
         <v>43899</v>
       </c>
-      <c r="I168" s="22">
+      <c r="I168" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5143,7 +5075,7 @@
       <c r="H169" s="10">
         <v>43899</v>
       </c>
-      <c r="I169" s="22">
+      <c r="I169" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5170,7 +5102,7 @@
       <c r="H170" s="10">
         <v>43899</v>
       </c>
-      <c r="I170" s="22">
+      <c r="I170" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5197,7 +5129,7 @@
       <c r="H171" s="10">
         <v>43899</v>
       </c>
-      <c r="I171" s="22">
+      <c r="I171" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5224,7 +5156,7 @@
       <c r="H172" s="10">
         <v>43899</v>
       </c>
-      <c r="I172" s="22">
+      <c r="I172" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5251,7 +5183,7 @@
       <c r="H173" s="10">
         <v>43899</v>
       </c>
-      <c r="I173" s="22">
+      <c r="I173" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5278,7 +5210,7 @@
       <c r="H174" s="10">
         <v>43899</v>
       </c>
-      <c r="I174" s="22">
+      <c r="I174" s="16">
         <v>1</v>
       </c>
     </row>
@@ -5305,7 +5237,7 @@
       <c r="H175" s="10">
         <v>43899</v>
       </c>
-      <c r="I175" s="22">
+      <c r="I175" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5332,7 +5264,7 @@
       <c r="H176" s="10">
         <v>43899</v>
       </c>
-      <c r="I176" s="22">
+      <c r="I176" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5359,7 +5291,7 @@
       <c r="H177" s="10">
         <v>43899</v>
       </c>
-      <c r="I177" s="22">
+      <c r="I177" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5386,7 +5318,7 @@
       <c r="H178" s="10">
         <v>43899</v>
       </c>
-      <c r="I178" s="22">
+      <c r="I178" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5413,7 +5345,7 @@
       <c r="H179" s="10">
         <v>43899</v>
       </c>
-      <c r="I179" s="22">
+      <c r="I179" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5440,7 +5372,7 @@
       <c r="H180" s="10">
         <v>43899</v>
       </c>
-      <c r="I180" s="22">
+      <c r="I180" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5467,7 +5399,7 @@
       <c r="H181" s="10">
         <v>43899</v>
       </c>
-      <c r="I181" s="22">
+      <c r="I181" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5494,7 +5426,7 @@
       <c r="H182" s="10">
         <v>43899</v>
       </c>
-      <c r="I182" s="22">
+      <c r="I182" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5521,7 +5453,7 @@
       <c r="H183" s="10">
         <v>43899</v>
       </c>
-      <c r="I183" s="22">
+      <c r="I183" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5548,7 +5480,7 @@
       <c r="H184" s="10">
         <v>43899</v>
       </c>
-      <c r="I184" s="22">
+      <c r="I184" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5575,7 +5507,7 @@
       <c r="H185" s="10">
         <v>43899</v>
       </c>
-      <c r="I185" s="22">
+      <c r="I185" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5602,7 +5534,7 @@
       <c r="H186" s="10">
         <v>43899</v>
       </c>
-      <c r="I186" s="22">
+      <c r="I186" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5629,7 +5561,7 @@
       <c r="H187" s="10">
         <v>43899</v>
       </c>
-      <c r="I187" s="22">
+      <c r="I187" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5656,7 +5588,7 @@
       <c r="H188" s="10">
         <v>43899</v>
       </c>
-      <c r="I188" s="22">
+      <c r="I188" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5683,7 +5615,7 @@
       <c r="H189" s="10">
         <v>43899</v>
       </c>
-      <c r="I189" s="22">
+      <c r="I189" s="16">
         <v>1</v>
       </c>
     </row>
@@ -5710,7 +5642,7 @@
       <c r="H190" s="10">
         <v>43899</v>
       </c>
-      <c r="I190" s="22">
+      <c r="I190" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5737,7 +5669,7 @@
       <c r="H191" s="10">
         <v>43899</v>
       </c>
-      <c r="I191" s="22">
+      <c r="I191" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5764,7 +5696,7 @@
       <c r="H192" s="10">
         <v>43899</v>
       </c>
-      <c r="I192" s="22">
+      <c r="I192" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5791,7 +5723,7 @@
       <c r="H193" s="10">
         <v>43899</v>
       </c>
-      <c r="I193" s="22">
+      <c r="I193" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5818,7 +5750,7 @@
       <c r="H194" s="10">
         <v>43899</v>
       </c>
-      <c r="I194" s="22">
+      <c r="I194" s="16">
         <v>1</v>
       </c>
     </row>
@@ -5845,7 +5777,7 @@
       <c r="H195" s="10">
         <v>43899</v>
       </c>
-      <c r="I195" s="22">
+      <c r="I195" s="16">
         <v>1</v>
       </c>
     </row>
@@ -5872,7 +5804,7 @@
       <c r="H196" s="10">
         <v>43899</v>
       </c>
-      <c r="I196" s="22">
+      <c r="I196" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5899,7 +5831,7 @@
       <c r="H197" s="10">
         <v>43899</v>
       </c>
-      <c r="I197" s="22">
+      <c r="I197" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5926,7 +5858,7 @@
       <c r="H198" s="10">
         <v>43899</v>
       </c>
-      <c r="I198" s="22">
+      <c r="I198" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5953,7 +5885,7 @@
       <c r="H199" s="10">
         <v>43899</v>
       </c>
-      <c r="I199" s="22">
+      <c r="I199" s="16">
         <v>0</v>
       </c>
     </row>
@@ -5980,7 +5912,7 @@
       <c r="H200" s="10">
         <v>43899</v>
       </c>
-      <c r="I200" s="22">
+      <c r="I200" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6007,7 +5939,7 @@
       <c r="H201" s="10">
         <v>43899</v>
       </c>
-      <c r="I201" s="22">
+      <c r="I201" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6034,7 +5966,7 @@
       <c r="H202" s="10">
         <v>43899</v>
       </c>
-      <c r="I202" s="22">
+      <c r="I202" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6061,7 +5993,7 @@
       <c r="H203" s="10">
         <v>43899</v>
       </c>
-      <c r="I203" s="22">
+      <c r="I203" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6088,7 +6020,7 @@
       <c r="H204" s="10">
         <v>43899</v>
       </c>
-      <c r="I204" s="22">
+      <c r="I204" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6115,7 +6047,7 @@
       <c r="H205" s="10">
         <v>43899</v>
       </c>
-      <c r="I205" s="22">
+      <c r="I205" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6142,7 +6074,7 @@
       <c r="H206" s="10">
         <v>43899</v>
       </c>
-      <c r="I206" s="22">
+      <c r="I206" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6169,7 +6101,7 @@
       <c r="H207" s="10">
         <v>43899</v>
       </c>
-      <c r="I207" s="22">
+      <c r="I207" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6196,7 +6128,7 @@
       <c r="H208" s="10">
         <v>43899</v>
       </c>
-      <c r="I208" s="22">
+      <c r="I208" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6225,7 +6157,7 @@
       <c r="H209" s="10">
         <v>43899</v>
       </c>
-      <c r="I209" s="22">
+      <c r="I209" s="16">
         <v>1</v>
       </c>
     </row>
@@ -6252,7 +6184,7 @@
       <c r="H210" s="10">
         <v>43899</v>
       </c>
-      <c r="I210" s="22">
+      <c r="I210" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6279,7 +6211,7 @@
       <c r="H211" s="10">
         <v>43899</v>
       </c>
-      <c r="I211" s="22">
+      <c r="I211" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6306,7 +6238,7 @@
       <c r="H212" s="10">
         <v>43899</v>
       </c>
-      <c r="I212" s="22">
+      <c r="I212" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6333,7 +6265,7 @@
       <c r="H213" s="10">
         <v>43899</v>
       </c>
-      <c r="I213" s="22">
+      <c r="I213" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6360,7 +6292,7 @@
       <c r="H214" s="10">
         <v>43899</v>
       </c>
-      <c r="I214" s="22">
+      <c r="I214" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6387,7 +6319,7 @@
       <c r="H215" s="10">
         <v>43899</v>
       </c>
-      <c r="I215" s="22">
+      <c r="I215" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6414,7 +6346,7 @@
       <c r="H216" s="10">
         <v>43899</v>
       </c>
-      <c r="I216" s="22">
+      <c r="I216" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6441,7 +6373,7 @@
       <c r="H217" s="10">
         <v>43899</v>
       </c>
-      <c r="I217" s="22">
+      <c r="I217" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6468,7 +6400,7 @@
       <c r="H218" s="10">
         <v>43899</v>
       </c>
-      <c r="I218" s="22">
+      <c r="I218" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6495,7 +6427,7 @@
       <c r="H219" s="10">
         <v>43899</v>
       </c>
-      <c r="I219" s="22">
+      <c r="I219" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6522,7 +6454,7 @@
       <c r="H220" s="10">
         <v>43899</v>
       </c>
-      <c r="I220" s="22">
+      <c r="I220" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6549,7 +6481,7 @@
       <c r="H221" s="10">
         <v>43899</v>
       </c>
-      <c r="I221" s="22">
+      <c r="I221" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6576,7 +6508,7 @@
       <c r="H222" s="10">
         <v>43899</v>
       </c>
-      <c r="I222" s="22">
+      <c r="I222" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6603,7 +6535,7 @@
       <c r="H223" s="10">
         <v>43899</v>
       </c>
-      <c r="I223" s="22">
+      <c r="I223" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6630,7 +6562,7 @@
       <c r="H224" s="10">
         <v>43899</v>
       </c>
-      <c r="I224" s="22">
+      <c r="I224" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6657,7 +6589,7 @@
       <c r="H225" s="10">
         <v>43899</v>
       </c>
-      <c r="I225" s="22">
+      <c r="I225" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6684,7 +6616,7 @@
       <c r="H226" s="10">
         <v>43899</v>
       </c>
-      <c r="I226" s="22">
+      <c r="I226" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6711,7 +6643,7 @@
       <c r="H227" s="10">
         <v>43899</v>
       </c>
-      <c r="I227" s="22">
+      <c r="I227" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6738,7 +6670,7 @@
       <c r="H228" s="10">
         <v>43899</v>
       </c>
-      <c r="I228" s="22">
+      <c r="I228" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6765,7 +6697,7 @@
       <c r="H229" s="10">
         <v>43899</v>
       </c>
-      <c r="I229" s="22">
+      <c r="I229" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6792,7 +6724,7 @@
       <c r="H230" s="10">
         <v>43899</v>
       </c>
-      <c r="I230" s="22">
+      <c r="I230" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6819,7 +6751,7 @@
       <c r="H231" s="10">
         <v>43899</v>
       </c>
-      <c r="I231" s="22">
+      <c r="I231" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6846,7 +6778,7 @@
       <c r="H232" s="10">
         <v>43899</v>
       </c>
-      <c r="I232" s="22">
+      <c r="I232" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6873,7 +6805,7 @@
       <c r="H233" s="10">
         <v>43899</v>
       </c>
-      <c r="I233" s="22">
+      <c r="I233" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6900,7 +6832,7 @@
       <c r="H234" s="10">
         <v>43899</v>
       </c>
-      <c r="I234" s="22">
+      <c r="I234" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6927,7 +6859,7 @@
       <c r="H235" s="10">
         <v>43899</v>
       </c>
-      <c r="I235" s="22">
+      <c r="I235" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6954,7 +6886,7 @@
       <c r="H236" s="10">
         <v>43899</v>
       </c>
-      <c r="I236" s="22">
+      <c r="I236" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6981,7 +6913,7 @@
       <c r="H237" s="10">
         <v>43899</v>
       </c>
-      <c r="I237" s="22">
+      <c r="I237" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7008,7 +6940,7 @@
       <c r="H238" s="10">
         <v>43899</v>
       </c>
-      <c r="I238" s="22">
+      <c r="I238" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7035,7 +6967,7 @@
       <c r="H239" s="10">
         <v>43899</v>
       </c>
-      <c r="I239" s="22">
+      <c r="I239" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7062,7 +6994,7 @@
       <c r="H240" s="10">
         <v>43899</v>
       </c>
-      <c r="I240" s="22">
+      <c r="I240" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7089,7 +7021,7 @@
       <c r="H241" s="10">
         <v>43899</v>
       </c>
-      <c r="I241" s="22">
+      <c r="I241" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7116,7 +7048,7 @@
       <c r="H242" s="10">
         <v>43899</v>
       </c>
-      <c r="I242" s="22">
+      <c r="I242" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7143,7 +7075,7 @@
       <c r="H243" s="10">
         <v>43899</v>
       </c>
-      <c r="I243" s="22">
+      <c r="I243" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7170,7 +7102,7 @@
       <c r="H244" s="10">
         <v>43899</v>
       </c>
-      <c r="I244" s="22">
+      <c r="I244" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7197,7 +7129,7 @@
       <c r="H245" s="10">
         <v>43899</v>
       </c>
-      <c r="I245" s="22">
+      <c r="I245" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7226,7 +7158,7 @@
       <c r="H246" s="10">
         <v>43899</v>
       </c>
-      <c r="I246" s="22">
+      <c r="I246" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7253,7 +7185,7 @@
       <c r="H247" s="10">
         <v>43899</v>
       </c>
-      <c r="I247" s="22">
+      <c r="I247" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7280,7 +7212,7 @@
       <c r="H248" s="10">
         <v>43899</v>
       </c>
-      <c r="I248" s="22">
+      <c r="I248" s="16">
         <v>1</v>
       </c>
     </row>
@@ -7307,7 +7239,7 @@
       <c r="H249" s="10">
         <v>43899</v>
       </c>
-      <c r="I249" s="22">
+      <c r="I249" s="16">
         <v>1</v>
       </c>
     </row>
@@ -7334,7 +7266,7 @@
       <c r="H250" s="10">
         <v>43899</v>
       </c>
-      <c r="I250" s="22">
+      <c r="I250" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7361,7 +7293,7 @@
       <c r="H251" s="10">
         <v>43899</v>
       </c>
-      <c r="I251" s="22">
+      <c r="I251" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7388,7 +7320,7 @@
       <c r="H252" s="10">
         <v>43899</v>
       </c>
-      <c r="I252" s="22">
+      <c r="I252" s="16">
         <v>1</v>
       </c>
     </row>
@@ -7415,7 +7347,7 @@
       <c r="H253" s="10">
         <v>43899</v>
       </c>
-      <c r="I253" s="22">
+      <c r="I253" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7444,7 +7376,7 @@
       <c r="H254" s="10">
         <v>43899</v>
       </c>
-      <c r="I254" s="22">
+      <c r="I254" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7471,7 +7403,7 @@
       <c r="H255" s="10">
         <v>43899</v>
       </c>
-      <c r="I255" s="22">
+      <c r="I255" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7498,7 +7430,7 @@
       <c r="H256" s="10">
         <v>43899</v>
       </c>
-      <c r="I256" s="22">
+      <c r="I256" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7525,7 +7457,7 @@
       <c r="H257" s="10">
         <v>43899</v>
       </c>
-      <c r="I257" s="22">
+      <c r="I257" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7552,7 +7484,7 @@
       <c r="H258" s="10">
         <v>43899</v>
       </c>
-      <c r="I258" s="22">
+      <c r="I258" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7579,7 +7511,7 @@
       <c r="H259" s="10">
         <v>43899</v>
       </c>
-      <c r="I259" s="22">
+      <c r="I259" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7606,7 +7538,7 @@
       <c r="H260" s="10">
         <v>43899</v>
       </c>
-      <c r="I260" s="22">
+      <c r="I260" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7633,7 +7565,7 @@
       <c r="H261" s="10">
         <v>43899</v>
       </c>
-      <c r="I261" s="22">
+      <c r="I261" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7660,7 +7592,7 @@
       <c r="H262" s="10">
         <v>43899</v>
       </c>
-      <c r="I262" s="22">
+      <c r="I262" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7687,7 +7619,7 @@
       <c r="H263" s="10">
         <v>43899</v>
       </c>
-      <c r="I263" s="22">
+      <c r="I263" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7714,7 +7646,7 @@
       <c r="H264" s="10">
         <v>43899</v>
       </c>
-      <c r="I264" s="22">
+      <c r="I264" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7741,7 +7673,7 @@
       <c r="H265" s="10">
         <v>43899</v>
       </c>
-      <c r="I265" s="22">
+      <c r="I265" s="16">
         <v>1</v>
       </c>
     </row>
@@ -7768,7 +7700,7 @@
       <c r="H266" s="10">
         <v>43899</v>
       </c>
-      <c r="I266" s="22">
+      <c r="I266" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7795,7 +7727,7 @@
       <c r="H267" s="10">
         <v>43899</v>
       </c>
-      <c r="I267" s="22">
+      <c r="I267" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7822,7 +7754,7 @@
       <c r="H268" s="10">
         <v>43899</v>
       </c>
-      <c r="I268" s="22">
+      <c r="I268" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7849,7 +7781,7 @@
       <c r="H269" s="10">
         <v>43899</v>
       </c>
-      <c r="I269" s="22">
+      <c r="I269" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7876,7 +7808,7 @@
       <c r="H270" s="10">
         <v>43899</v>
       </c>
-      <c r="I270" s="22">
+      <c r="I270" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7903,7 +7835,7 @@
       <c r="H271" s="10">
         <v>43899</v>
       </c>
-      <c r="I271" s="22">
+      <c r="I271" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7930,7 +7862,7 @@
       <c r="H272" s="10">
         <v>43899</v>
       </c>
-      <c r="I272" s="22">
+      <c r="I272" s="16">
         <v>0</v>
       </c>
     </row>
@@ -7957,7 +7889,7 @@
       <c r="H273" s="10">
         <v>43899</v>
       </c>
-      <c r="I273" s="22">
+      <c r="I273" s="16">
         <v>1</v>
       </c>
     </row>
@@ -7984,7 +7916,7 @@
       <c r="H274" s="10">
         <v>43899</v>
       </c>
-      <c r="I274" s="22">
+      <c r="I274" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8011,7 +7943,7 @@
       <c r="H275" s="10">
         <v>43899</v>
       </c>
-      <c r="I275" s="22">
+      <c r="I275" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8038,7 +7970,7 @@
       <c r="H276" s="10">
         <v>43899</v>
       </c>
-      <c r="I276" s="22">
+      <c r="I276" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8065,7 +7997,7 @@
       <c r="H277" s="10">
         <v>43899</v>
       </c>
-      <c r="I277" s="22">
+      <c r="I277" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8092,7 +8024,7 @@
       <c r="H278" s="10">
         <v>43899</v>
       </c>
-      <c r="I278" s="22">
+      <c r="I278" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8119,7 +8051,7 @@
       <c r="H279" s="10">
         <v>43899</v>
       </c>
-      <c r="I279" s="22">
+      <c r="I279" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8146,7 +8078,7 @@
       <c r="H280" s="10">
         <v>43899</v>
       </c>
-      <c r="I280" s="22">
+      <c r="I280" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8175,7 +8107,7 @@
       <c r="H281" s="10">
         <v>43899</v>
       </c>
-      <c r="I281" s="22">
+      <c r="I281" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8202,7 +8134,7 @@
       <c r="H282" s="10">
         <v>43899</v>
       </c>
-      <c r="I282" s="22">
+      <c r="I282" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8229,7 +8161,7 @@
       <c r="H283" s="10">
         <v>43899</v>
       </c>
-      <c r="I283" s="22">
+      <c r="I283" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8256,7 +8188,7 @@
       <c r="H284" s="10">
         <v>43899</v>
       </c>
-      <c r="I284" s="22">
+      <c r="I284" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8283,7 +8215,7 @@
       <c r="H285" s="10">
         <v>43899</v>
       </c>
-      <c r="I285" s="22">
+      <c r="I285" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8310,7 +8242,7 @@
       <c r="H286" s="10">
         <v>43899</v>
       </c>
-      <c r="I286" s="22">
+      <c r="I286" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8337,7 +8269,7 @@
       <c r="H287" s="10">
         <v>43899</v>
       </c>
-      <c r="I287" s="22">
+      <c r="I287" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8364,7 +8296,7 @@
       <c r="H288" s="10">
         <v>43899</v>
       </c>
-      <c r="I288" s="22">
+      <c r="I288" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8391,7 +8323,7 @@
       <c r="H289" s="10">
         <v>43899</v>
       </c>
-      <c r="I289" s="22">
+      <c r="I289" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8418,7 +8350,7 @@
       <c r="H290" s="10">
         <v>43899</v>
       </c>
-      <c r="I290" s="22">
+      <c r="I290" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8445,7 +8377,7 @@
       <c r="H291" s="10">
         <v>43899</v>
       </c>
-      <c r="I291" s="22">
+      <c r="I291" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8474,7 +8406,7 @@
       <c r="H292" s="10">
         <v>43899</v>
       </c>
-      <c r="I292" s="22">
+      <c r="I292" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8501,7 +8433,7 @@
       <c r="H293" s="10">
         <v>43899</v>
       </c>
-      <c r="I293" s="22">
+      <c r="I293" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8528,7 +8460,7 @@
       <c r="H294" s="10">
         <v>43899</v>
       </c>
-      <c r="I294" s="22">
+      <c r="I294" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8555,7 +8487,7 @@
       <c r="H295" s="10">
         <v>43899</v>
       </c>
-      <c r="I295" s="22">
+      <c r="I295" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8582,7 +8514,7 @@
       <c r="H296" s="10">
         <v>43899</v>
       </c>
-      <c r="I296" s="22">
+      <c r="I296" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8609,7 +8541,7 @@
       <c r="H297" s="10">
         <v>43899</v>
       </c>
-      <c r="I297" s="22">
+      <c r="I297" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8636,7 +8568,7 @@
       <c r="H298" s="10">
         <v>43899</v>
       </c>
-      <c r="I298" s="22">
+      <c r="I298" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8663,7 +8595,7 @@
       <c r="H299" s="10">
         <v>43899</v>
       </c>
-      <c r="I299" s="22">
+      <c r="I299" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8690,7 +8622,7 @@
       <c r="H300" s="10">
         <v>43899</v>
       </c>
-      <c r="I300" s="22">
+      <c r="I300" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8717,7 +8649,7 @@
       <c r="H301" s="10">
         <v>43899</v>
       </c>
-      <c r="I301" s="22">
+      <c r="I301" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8746,7 +8678,7 @@
       <c r="H302" s="10">
         <v>43899</v>
       </c>
-      <c r="I302" s="22">
+      <c r="I302" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8773,7 +8705,7 @@
       <c r="H303" s="10">
         <v>43899</v>
       </c>
-      <c r="I303" s="22">
+      <c r="I303" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8800,7 +8732,7 @@
       <c r="H304" s="10">
         <v>43899</v>
       </c>
-      <c r="I304" s="22">
+      <c r="I304" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8827,7 +8759,7 @@
       <c r="H305" s="10">
         <v>43899</v>
       </c>
-      <c r="I305" s="22">
+      <c r="I305" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8854,7 +8786,7 @@
       <c r="H306" s="10">
         <v>43899</v>
       </c>
-      <c r="I306" s="22">
+      <c r="I306" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8881,7 +8813,7 @@
       <c r="H307" s="10">
         <v>43899</v>
       </c>
-      <c r="I307" s="22">
+      <c r="I307" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8908,7 +8840,7 @@
       <c r="H308" s="10">
         <v>43899</v>
       </c>
-      <c r="I308" s="22">
+      <c r="I308" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8935,7 +8867,7 @@
       <c r="H309" s="10">
         <v>43899</v>
       </c>
-      <c r="I309" s="22">
+      <c r="I309" s="16">
         <v>1</v>
       </c>
     </row>
@@ -8962,7 +8894,7 @@
       <c r="H310" s="10">
         <v>43899</v>
       </c>
-      <c r="I310" s="22">
+      <c r="I310" s="16">
         <v>0</v>
       </c>
     </row>
@@ -8989,7 +8921,7 @@
       <c r="H311" s="10">
         <v>43899</v>
       </c>
-      <c r="I311" s="22">
+      <c r="I311" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9016,7 +8948,7 @@
       <c r="H312" s="10">
         <v>43899</v>
       </c>
-      <c r="I312" s="22">
+      <c r="I312" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9043,7 +8975,7 @@
       <c r="H313" s="10">
         <v>43899</v>
       </c>
-      <c r="I313" s="22">
+      <c r="I313" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9070,7 +9002,7 @@
       <c r="H314" s="10">
         <v>43899</v>
       </c>
-      <c r="I314" s="22">
+      <c r="I314" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9097,7 +9029,7 @@
       <c r="H315" s="10">
         <v>43899</v>
       </c>
-      <c r="I315" s="22">
+      <c r="I315" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9124,7 +9056,7 @@
       <c r="H316" s="10">
         <v>43899</v>
       </c>
-      <c r="I316" s="22">
+      <c r="I316" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9151,7 +9083,7 @@
       <c r="H317" s="10">
         <v>43899</v>
       </c>
-      <c r="I317" s="22">
+      <c r="I317" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9178,7 +9110,7 @@
       <c r="H318" s="10">
         <v>43899</v>
       </c>
-      <c r="I318" s="22">
+      <c r="I318" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9205,7 +9137,7 @@
       <c r="H319" s="10">
         <v>43899</v>
       </c>
-      <c r="I319" s="22">
+      <c r="I319" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9232,7 +9164,7 @@
       <c r="H320" s="10">
         <v>43899</v>
       </c>
-      <c r="I320" s="22">
+      <c r="I320" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9261,7 +9193,7 @@
       <c r="H321" s="10">
         <v>43899</v>
       </c>
-      <c r="I321" s="22">
+      <c r="I321" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9288,7 +9220,7 @@
       <c r="H322" s="10">
         <v>43899</v>
       </c>
-      <c r="I322" s="22">
+      <c r="I322" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9315,7 +9247,7 @@
       <c r="H323" s="10">
         <v>43899</v>
       </c>
-      <c r="I323" s="22">
+      <c r="I323" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9342,7 +9274,7 @@
       <c r="H324" s="10">
         <v>43870</v>
       </c>
-      <c r="I324" s="22">
+      <c r="I324" s="16">
         <v>1</v>
       </c>
     </row>
@@ -9369,7 +9301,7 @@
       <c r="H325" s="10">
         <v>43870</v>
       </c>
-      <c r="I325" s="22">
+      <c r="I325" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9396,7 +9328,7 @@
       <c r="H326" s="10">
         <v>43870</v>
       </c>
-      <c r="I326" s="22">
+      <c r="I326" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9423,7 +9355,7 @@
       <c r="H327" s="10">
         <v>43870</v>
       </c>
-      <c r="I327" s="22">
+      <c r="I327" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9450,7 +9382,7 @@
       <c r="H328" s="10">
         <v>43870</v>
       </c>
-      <c r="I328" s="22">
+      <c r="I328" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9477,7 +9409,7 @@
       <c r="H329" s="10">
         <v>43870</v>
       </c>
-      <c r="I329" s="22">
+      <c r="I329" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9504,7 +9436,7 @@
       <c r="H330" s="10">
         <v>43870</v>
       </c>
-      <c r="I330" s="22">
+      <c r="I330" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9531,7 +9463,7 @@
       <c r="H331" s="10">
         <v>43870</v>
       </c>
-      <c r="I331" s="22">
+      <c r="I331" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9558,7 +9490,7 @@
       <c r="H332" s="10">
         <v>43870</v>
       </c>
-      <c r="I332" s="22">
+      <c r="I332" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9585,7 +9517,7 @@
       <c r="H333" s="10">
         <v>43870</v>
       </c>
-      <c r="I333" s="22">
+      <c r="I333" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9612,7 +9544,7 @@
       <c r="H334" s="10">
         <v>43870</v>
       </c>
-      <c r="I334" s="22">
+      <c r="I334" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9639,7 +9571,7 @@
       <c r="H335" s="10">
         <v>43870</v>
       </c>
-      <c r="I335" s="22">
+      <c r="I335" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9666,7 +9598,7 @@
       <c r="H336" s="10">
         <v>43870</v>
       </c>
-      <c r="I336" s="22">
+      <c r="I336" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9693,7 +9625,7 @@
       <c r="H337" s="10">
         <v>43870</v>
       </c>
-      <c r="I337" s="22">
+      <c r="I337" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9720,7 +9652,7 @@
       <c r="H338" s="10">
         <v>43870</v>
       </c>
-      <c r="I338" s="22">
+      <c r="I338" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9747,7 +9679,7 @@
       <c r="H339" s="10">
         <v>43870</v>
       </c>
-      <c r="I339" s="22">
+      <c r="I339" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9776,7 +9708,7 @@
       <c r="H340" s="10">
         <v>43870</v>
       </c>
-      <c r="I340" s="22">
+      <c r="I340" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9803,7 +9735,7 @@
       <c r="H341" s="10">
         <v>43870</v>
       </c>
-      <c r="I341" s="22">
+      <c r="I341" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9830,7 +9762,7 @@
       <c r="H342" s="10">
         <v>43870</v>
       </c>
-      <c r="I342" s="22">
+      <c r="I342" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9857,7 +9789,7 @@
       <c r="H343" s="10">
         <v>43870</v>
       </c>
-      <c r="I343" s="22">
+      <c r="I343" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9884,7 +9816,7 @@
       <c r="H344" s="10">
         <v>43870</v>
       </c>
-      <c r="I344" s="22">
+      <c r="I344" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9911,7 +9843,7 @@
       <c r="H345" s="10">
         <v>43870</v>
       </c>
-      <c r="I345" s="22">
+      <c r="I345" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9938,7 +9870,7 @@
       <c r="H346" s="10">
         <v>43870</v>
       </c>
-      <c r="I346" s="22">
+      <c r="I346" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9965,7 +9897,7 @@
       <c r="H347" s="10">
         <v>43870</v>
       </c>
-      <c r="I347" s="22">
+      <c r="I347" s="16">
         <v>0</v>
       </c>
     </row>
@@ -9992,7 +9924,7 @@
       <c r="H348" s="10">
         <v>43870</v>
       </c>
-      <c r="I348" s="22">
+      <c r="I348" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10019,7 +9951,7 @@
       <c r="H349" s="10">
         <v>43870</v>
       </c>
-      <c r="I349" s="22">
+      <c r="I349" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10046,7 +9978,7 @@
       <c r="H350" s="10">
         <v>43870</v>
       </c>
-      <c r="I350" s="22">
+      <c r="I350" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10073,7 +10005,7 @@
       <c r="H351" s="10">
         <v>43870</v>
       </c>
-      <c r="I351" s="22">
+      <c r="I351" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10100,7 +10032,7 @@
       <c r="H352" s="10">
         <v>43870</v>
       </c>
-      <c r="I352" s="22">
+      <c r="I352" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10127,7 +10059,7 @@
       <c r="H353" s="10">
         <v>43870</v>
       </c>
-      <c r="I353" s="22">
+      <c r="I353" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10154,7 +10086,7 @@
       <c r="H354" s="10">
         <v>43870</v>
       </c>
-      <c r="I354" s="22">
+      <c r="I354" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10181,7 +10113,7 @@
       <c r="H355" s="10">
         <v>43870</v>
       </c>
-      <c r="I355" s="22">
+      <c r="I355" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10208,7 +10140,7 @@
       <c r="H356" s="10">
         <v>43870</v>
       </c>
-      <c r="I356" s="22">
+      <c r="I356" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10235,7 +10167,7 @@
       <c r="H357" s="10">
         <v>43870</v>
       </c>
-      <c r="I357" s="22">
+      <c r="I357" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10262,7 +10194,7 @@
       <c r="H358" s="10">
         <v>43870</v>
       </c>
-      <c r="I358" s="22">
+      <c r="I358" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10289,7 +10221,7 @@
       <c r="H359" s="10">
         <v>43870</v>
       </c>
-      <c r="I359" s="22">
+      <c r="I359" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10316,7 +10248,7 @@
       <c r="H360" s="10">
         <v>43870</v>
       </c>
-      <c r="I360" s="22">
+      <c r="I360" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10343,7 +10275,7 @@
       <c r="H361" s="10">
         <v>43870</v>
       </c>
-      <c r="I361" s="22">
+      <c r="I361" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10370,7 +10302,7 @@
       <c r="H362" s="10">
         <v>43870</v>
       </c>
-      <c r="I362" s="22">
+      <c r="I362" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10397,7 +10329,7 @@
       <c r="H363" s="10">
         <v>43870</v>
       </c>
-      <c r="I363" s="22">
+      <c r="I363" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10424,7 +10356,7 @@
       <c r="H364" s="10">
         <v>43870</v>
       </c>
-      <c r="I364" s="22">
+      <c r="I364" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10451,7 +10383,7 @@
       <c r="H365" s="10">
         <v>43870</v>
       </c>
-      <c r="I365" s="22">
+      <c r="I365" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10478,7 +10410,7 @@
       <c r="H366" s="10">
         <v>43870</v>
       </c>
-      <c r="I366" s="22">
+      <c r="I366" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10505,7 +10437,7 @@
       <c r="H367" s="10">
         <v>43870</v>
       </c>
-      <c r="I367" s="22">
+      <c r="I367" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10532,7 +10464,7 @@
       <c r="H368" s="10">
         <v>43870</v>
       </c>
-      <c r="I368" s="22">
+      <c r="I368" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10559,7 +10491,7 @@
       <c r="H369" s="10">
         <v>43870</v>
       </c>
-      <c r="I369" s="22">
+      <c r="I369" s="16">
         <v>1</v>
       </c>
     </row>
@@ -10586,7 +10518,7 @@
       <c r="H370" s="10">
         <v>43870</v>
       </c>
-      <c r="I370" s="22">
+      <c r="I370" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10613,7 +10545,7 @@
       <c r="H371" s="10">
         <v>43870</v>
       </c>
-      <c r="I371" s="22">
+      <c r="I371" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10640,7 +10572,7 @@
       <c r="H372" s="10">
         <v>43870</v>
       </c>
-      <c r="I372" s="22">
+      <c r="I372" s="16">
         <v>1</v>
       </c>
     </row>
@@ -10667,7 +10599,7 @@
       <c r="H373" s="10">
         <v>43870</v>
       </c>
-      <c r="I373" s="22">
+      <c r="I373" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10694,7 +10626,7 @@
       <c r="H374" s="10">
         <v>43870</v>
       </c>
-      <c r="I374" s="22">
+      <c r="I374" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10721,7 +10653,7 @@
       <c r="H375" s="10">
         <v>43870</v>
       </c>
-      <c r="I375" s="22">
+      <c r="I375" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10748,7 +10680,7 @@
       <c r="H376" s="10">
         <v>43870</v>
       </c>
-      <c r="I376" s="22">
+      <c r="I376" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10775,7 +10707,7 @@
       <c r="H377" s="10">
         <v>43870</v>
       </c>
-      <c r="I377" s="22">
+      <c r="I377" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10802,7 +10734,7 @@
       <c r="H378" s="10">
         <v>43870</v>
       </c>
-      <c r="I378" s="22">
+      <c r="I378" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10829,7 +10761,7 @@
       <c r="H379" s="10">
         <v>43870</v>
       </c>
-      <c r="I379" s="22">
+      <c r="I379" s="16">
         <v>1</v>
       </c>
     </row>
@@ -10856,7 +10788,7 @@
       <c r="H380" s="10">
         <v>43870</v>
       </c>
-      <c r="I380" s="22">
+      <c r="I380" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10883,7 +10815,7 @@
       <c r="H381" s="10">
         <v>43870</v>
       </c>
-      <c r="I381" s="22">
+      <c r="I381" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10910,7 +10842,7 @@
       <c r="H382" s="10">
         <v>43870</v>
       </c>
-      <c r="I382" s="22">
+      <c r="I382" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10937,7 +10869,7 @@
       <c r="H383" s="10">
         <v>43870</v>
       </c>
-      <c r="I383" s="22">
+      <c r="I383" s="16">
         <v>1</v>
       </c>
     </row>
@@ -10964,7 +10896,7 @@
       <c r="H384" s="10">
         <v>43870</v>
       </c>
-      <c r="I384" s="22">
+      <c r="I384" s="16">
         <v>0</v>
       </c>
     </row>
@@ -10991,7 +10923,7 @@
       <c r="H385" s="10">
         <v>43870</v>
       </c>
-      <c r="I385" s="22">
+      <c r="I385" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11018,7 +10950,7 @@
       <c r="H386" s="10">
         <v>43870</v>
       </c>
-      <c r="I386" s="22">
+      <c r="I386" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11045,7 +10977,7 @@
       <c r="H387" s="10">
         <v>43870</v>
       </c>
-      <c r="I387" s="22">
+      <c r="I387" s="16">
         <v>1</v>
       </c>
     </row>
@@ -11072,7 +11004,7 @@
       <c r="H388" s="10">
         <v>43870</v>
       </c>
-      <c r="I388" s="22">
+      <c r="I388" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11099,7 +11031,7 @@
       <c r="H389" s="10">
         <v>43870</v>
       </c>
-      <c r="I389" s="22">
+      <c r="I389" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11126,7 +11058,7 @@
       <c r="H390" s="10">
         <v>43870</v>
       </c>
-      <c r="I390" s="22">
+      <c r="I390" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11153,7 +11085,7 @@
       <c r="H391" s="10">
         <v>43870</v>
       </c>
-      <c r="I391" s="22">
+      <c r="I391" s="16">
         <v>1</v>
       </c>
     </row>
@@ -11180,7 +11112,7 @@
       <c r="H392" s="10">
         <v>43870</v>
       </c>
-      <c r="I392" s="22">
+      <c r="I392" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11207,7 +11139,7 @@
       <c r="H393" s="10">
         <v>43870</v>
       </c>
-      <c r="I393" s="22">
+      <c r="I393" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11234,7 +11166,7 @@
       <c r="H394" s="10">
         <v>43870</v>
       </c>
-      <c r="I394" s="22">
+      <c r="I394" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11261,7 +11193,7 @@
       <c r="H395" s="10">
         <v>43870</v>
       </c>
-      <c r="I395" s="22">
+      <c r="I395" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11288,7 +11220,7 @@
       <c r="H396" s="10">
         <v>43870</v>
       </c>
-      <c r="I396" s="22">
+      <c r="I396" s="16">
         <v>1</v>
       </c>
     </row>
@@ -11315,7 +11247,7 @@
       <c r="H397" s="10">
         <v>43870</v>
       </c>
-      <c r="I397" s="22">
+      <c r="I397" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11342,7 +11274,7 @@
       <c r="H398" s="10">
         <v>43870</v>
       </c>
-      <c r="I398" s="22">
+      <c r="I398" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11369,7 +11301,7 @@
       <c r="H399" s="10">
         <v>43870</v>
       </c>
-      <c r="I399" s="22">
+      <c r="I399" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11396,7 +11328,7 @@
       <c r="H400" s="10">
         <v>43870</v>
       </c>
-      <c r="I400" s="22">
+      <c r="I400" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11423,7 +11355,7 @@
       <c r="H401" s="10">
         <v>43870</v>
       </c>
-      <c r="I401" s="22">
+      <c r="I401" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11450,7 +11382,7 @@
       <c r="H402" s="10">
         <v>43870</v>
       </c>
-      <c r="I402" s="22">
+      <c r="I402" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11477,7 +11409,7 @@
       <c r="H403" s="10">
         <v>43870</v>
       </c>
-      <c r="I403" s="22">
+      <c r="I403" s="16">
         <v>1</v>
       </c>
     </row>
@@ -11504,7 +11436,7 @@
       <c r="H404" s="10">
         <v>43870</v>
       </c>
-      <c r="I404" s="22">
+      <c r="I404" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11531,7 +11463,7 @@
       <c r="H405" s="10">
         <v>43870</v>
       </c>
-      <c r="I405" s="22">
+      <c r="I405" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11558,7 +11490,7 @@
       <c r="H406" s="10">
         <v>43870</v>
       </c>
-      <c r="I406" s="22">
+      <c r="I406" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11585,7 +11517,7 @@
       <c r="H407" s="10">
         <v>43870</v>
       </c>
-      <c r="I407" s="22">
+      <c r="I407" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11612,7 +11544,7 @@
       <c r="H408" s="10">
         <v>43870</v>
       </c>
-      <c r="I408" s="22">
+      <c r="I408" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11639,7 +11571,7 @@
       <c r="H409" s="10">
         <v>43870</v>
       </c>
-      <c r="I409" s="22">
+      <c r="I409" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11668,7 +11600,7 @@
       <c r="H410" s="10">
         <v>43870</v>
       </c>
-      <c r="I410" s="22">
+      <c r="I410" s="16">
         <v>1</v>
       </c>
     </row>
@@ -11695,7 +11627,7 @@
       <c r="H411" s="10">
         <v>43870</v>
       </c>
-      <c r="I411" s="22">
+      <c r="I411" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11722,7 +11654,7 @@
       <c r="H412" s="10">
         <v>43870</v>
       </c>
-      <c r="I412" s="22">
+      <c r="I412" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11749,7 +11681,7 @@
       <c r="H413" s="10">
         <v>43870</v>
       </c>
-      <c r="I413" s="22">
+      <c r="I413" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11776,7 +11708,7 @@
       <c r="H414" s="10">
         <v>43870</v>
       </c>
-      <c r="I414" s="22">
+      <c r="I414" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11803,7 +11735,7 @@
       <c r="H415" s="10">
         <v>43870</v>
       </c>
-      <c r="I415" s="22">
+      <c r="I415" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11830,7 +11762,7 @@
       <c r="H416" s="10">
         <v>43870</v>
       </c>
-      <c r="I416" s="22">
+      <c r="I416" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11857,7 +11789,7 @@
       <c r="H417" s="10">
         <v>43870</v>
       </c>
-      <c r="I417" s="22">
+      <c r="I417" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11884,7 +11816,7 @@
       <c r="H418" s="10">
         <v>43870</v>
       </c>
-      <c r="I418" s="22">
+      <c r="I418" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11911,7 +11843,7 @@
       <c r="H419" s="10">
         <v>43870</v>
       </c>
-      <c r="I419" s="22">
+      <c r="I419" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11938,7 +11870,7 @@
       <c r="H420" s="10">
         <v>43870</v>
       </c>
-      <c r="I420" s="22">
+      <c r="I420" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11965,7 +11897,7 @@
       <c r="H421" s="10">
         <v>43870</v>
       </c>
-      <c r="I421" s="22">
+      <c r="I421" s="16">
         <v>0</v>
       </c>
     </row>
@@ -11992,7 +11924,7 @@
       <c r="H422" s="10">
         <v>43870</v>
       </c>
-      <c r="I422" s="22">
+      <c r="I422" s="16">
         <v>1</v>
       </c>
     </row>
@@ -12019,7 +11951,7 @@
       <c r="H423" s="10">
         <v>43870</v>
       </c>
-      <c r="I423" s="22">
+      <c r="I423" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12046,7 +11978,7 @@
       <c r="H424" s="10">
         <v>43870</v>
       </c>
-      <c r="I424" s="22">
+      <c r="I424" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12073,7 +12005,7 @@
       <c r="H425" s="10">
         <v>43870</v>
       </c>
-      <c r="I425" s="22">
+      <c r="I425" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12100,7 +12032,7 @@
       <c r="H426" s="10">
         <v>43870</v>
       </c>
-      <c r="I426" s="22">
+      <c r="I426" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12127,7 +12059,7 @@
       <c r="H427" s="10">
         <v>43870</v>
       </c>
-      <c r="I427" s="22">
+      <c r="I427" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12154,7 +12086,7 @@
       <c r="H428" s="10">
         <v>43870</v>
       </c>
-      <c r="I428" s="22">
+      <c r="I428" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12181,7 +12113,7 @@
       <c r="H429" s="10">
         <v>43870</v>
       </c>
-      <c r="I429" s="22">
+      <c r="I429" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12208,7 +12140,7 @@
       <c r="H430" s="10">
         <v>43870</v>
       </c>
-      <c r="I430" s="22">
+      <c r="I430" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12235,7 +12167,7 @@
       <c r="H431" s="10">
         <v>43870</v>
       </c>
-      <c r="I431" s="22">
+      <c r="I431" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12262,7 +12194,7 @@
       <c r="H432" s="10">
         <v>43870</v>
       </c>
-      <c r="I432" s="22">
+      <c r="I432" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12289,7 +12221,7 @@
       <c r="H433" s="10">
         <v>43870</v>
       </c>
-      <c r="I433" s="22">
+      <c r="I433" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12316,7 +12248,7 @@
       <c r="H434" s="10">
         <v>43870</v>
       </c>
-      <c r="I434" s="22">
+      <c r="I434" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12343,7 +12275,7 @@
       <c r="H435" s="10">
         <v>43870</v>
       </c>
-      <c r="I435" s="22">
+      <c r="I435" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12370,7 +12302,7 @@
       <c r="H436" s="10">
         <v>43870</v>
       </c>
-      <c r="I436" s="22">
+      <c r="I436" s="16">
         <v>1</v>
       </c>
     </row>
@@ -12397,7 +12329,7 @@
       <c r="H437" s="10">
         <v>43870</v>
       </c>
-      <c r="I437" s="22">
+      <c r="I437" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12424,7 +12356,7 @@
       <c r="H438" s="10">
         <v>43870</v>
       </c>
-      <c r="I438" s="22">
+      <c r="I438" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12451,7 +12383,7 @@
       <c r="H439" s="10">
         <v>43870</v>
       </c>
-      <c r="I439" s="22">
+      <c r="I439" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12478,7 +12410,7 @@
       <c r="H440" s="10">
         <v>43870</v>
       </c>
-      <c r="I440" s="22">
+      <c r="I440" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12505,7 +12437,7 @@
       <c r="H441" s="10">
         <v>43870</v>
       </c>
-      <c r="I441" s="22">
+      <c r="I441" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12532,7 +12464,7 @@
       <c r="H442" s="10">
         <v>43870</v>
       </c>
-      <c r="I442" s="22">
+      <c r="I442" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12559,7 +12491,7 @@
       <c r="H443" s="10">
         <v>43870</v>
       </c>
-      <c r="I443" s="22">
+      <c r="I443" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12586,7 +12518,7 @@
       <c r="H444" s="10">
         <v>43870</v>
       </c>
-      <c r="I444" s="22">
+      <c r="I444" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12613,7 +12545,7 @@
       <c r="H445" s="10">
         <v>43870</v>
       </c>
-      <c r="I445" s="22">
+      <c r="I445" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12640,7 +12572,7 @@
       <c r="H446" s="10">
         <v>43870</v>
       </c>
-      <c r="I446" s="22">
+      <c r="I446" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12667,7 +12599,7 @@
       <c r="H447" s="10">
         <v>43870</v>
       </c>
-      <c r="I447" s="22">
+      <c r="I447" s="16">
         <v>1</v>
       </c>
     </row>
@@ -12696,7 +12628,7 @@
       <c r="H448" s="10">
         <v>43870</v>
       </c>
-      <c r="I448" s="22">
+      <c r="I448" s="16">
         <v>1</v>
       </c>
     </row>
@@ -12723,7 +12655,7 @@
       <c r="H449" s="10">
         <v>43870</v>
       </c>
-      <c r="I449" s="22">
+      <c r="I449" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12750,7 +12682,7 @@
       <c r="H450" s="10">
         <v>43870</v>
       </c>
-      <c r="I450" s="22">
+      <c r="I450" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12777,7 +12709,7 @@
       <c r="H451" s="10">
         <v>43870</v>
       </c>
-      <c r="I451" s="22">
+      <c r="I451" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12804,7 +12736,7 @@
       <c r="H452" s="10">
         <v>43870</v>
       </c>
-      <c r="I452" s="22">
+      <c r="I452" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12831,7 +12763,7 @@
       <c r="H453" s="10">
         <v>43870</v>
       </c>
-      <c r="I453" s="22">
+      <c r="I453" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12858,7 +12790,7 @@
       <c r="H454" s="10">
         <v>43870</v>
       </c>
-      <c r="I454" s="22">
+      <c r="I454" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12885,7 +12817,7 @@
       <c r="H455" s="10">
         <v>43870</v>
       </c>
-      <c r="I455" s="22">
+      <c r="I455" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12912,7 +12844,7 @@
       <c r="H456" s="10">
         <v>43870</v>
       </c>
-      <c r="I456" s="22">
+      <c r="I456" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12939,7 +12871,7 @@
       <c r="H457" s="10">
         <v>43870</v>
       </c>
-      <c r="I457" s="22">
+      <c r="I457" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12966,7 +12898,7 @@
       <c r="H458" s="10">
         <v>43870</v>
       </c>
-      <c r="I458" s="22">
+      <c r="I458" s="16">
         <v>1</v>
       </c>
     </row>
@@ -12993,7 +12925,7 @@
       <c r="H459" s="10">
         <v>43870</v>
       </c>
-      <c r="I459" s="22">
+      <c r="I459" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13020,7 +12952,7 @@
       <c r="H460" s="10">
         <v>43870</v>
       </c>
-      <c r="I460" s="22">
+      <c r="I460" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13047,7 +12979,7 @@
       <c r="H461" s="10">
         <v>43870</v>
       </c>
-      <c r="I461" s="22">
+      <c r="I461" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13076,7 +13008,7 @@
       <c r="H462" s="10">
         <v>43839</v>
       </c>
-      <c r="I462" s="22">
+      <c r="I462" s="16">
         <v>1</v>
       </c>
     </row>
@@ -13103,7 +13035,7 @@
       <c r="H463" s="10">
         <v>43839</v>
       </c>
-      <c r="I463" s="22">
+      <c r="I463" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13130,7 +13062,7 @@
       <c r="H464" s="10">
         <v>43839</v>
       </c>
-      <c r="I464" s="22">
+      <c r="I464" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13159,7 +13091,7 @@
       <c r="H465" s="10">
         <v>43839</v>
       </c>
-      <c r="I465" s="22">
+      <c r="I465" s="16">
         <v>1</v>
       </c>
     </row>
@@ -13186,7 +13118,7 @@
       <c r="H466" s="10">
         <v>43839</v>
       </c>
-      <c r="I466" s="22">
+      <c r="I466" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13213,7 +13145,7 @@
       <c r="H467" s="10">
         <v>43839</v>
       </c>
-      <c r="I467" s="22">
+      <c r="I467" s="16">
         <v>1</v>
       </c>
     </row>
@@ -13240,7 +13172,7 @@
       <c r="H468" s="10">
         <v>43839</v>
       </c>
-      <c r="I468" s="22">
+      <c r="I468" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13267,7 +13199,7 @@
       <c r="H469" s="10">
         <v>43839</v>
       </c>
-      <c r="I469" s="22">
+      <c r="I469" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13294,7 +13226,7 @@
       <c r="H470" s="10">
         <v>43839</v>
       </c>
-      <c r="I470" s="22">
+      <c r="I470" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13321,7 +13253,7 @@
       <c r="H471" s="10">
         <v>43839</v>
       </c>
-      <c r="I471" s="22">
+      <c r="I471" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13348,7 +13280,7 @@
       <c r="H472" s="10">
         <v>43839</v>
       </c>
-      <c r="I472" s="22">
+      <c r="I472" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13375,7 +13307,7 @@
       <c r="H473" s="10">
         <v>43839</v>
       </c>
-      <c r="I473" s="22">
+      <c r="I473" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13402,7 +13334,7 @@
       <c r="H474" s="10">
         <v>43839</v>
       </c>
-      <c r="I474" s="22">
+      <c r="I474" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13429,7 +13361,7 @@
       <c r="H475" s="10">
         <v>43839</v>
       </c>
-      <c r="I475" s="22">
+      <c r="I475" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13456,7 +13388,7 @@
       <c r="H476" s="10">
         <v>43839</v>
       </c>
-      <c r="I476" s="22">
+      <c r="I476" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13483,7 +13415,7 @@
       <c r="H477" s="10">
         <v>43839</v>
       </c>
-      <c r="I477" s="22">
+      <c r="I477" s="16">
         <v>1</v>
       </c>
     </row>
@@ -13510,7 +13442,7 @@
       <c r="H478" s="10">
         <v>43839</v>
       </c>
-      <c r="I478" s="22">
+      <c r="I478" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13537,7 +13469,7 @@
       <c r="H479" s="10">
         <v>43839</v>
       </c>
-      <c r="I479" s="22">
+      <c r="I479" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13564,7 +13496,7 @@
       <c r="H480" s="10">
         <v>43839</v>
       </c>
-      <c r="I480" s="22">
+      <c r="I480" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13591,7 +13523,7 @@
       <c r="H481" s="10">
         <v>43839</v>
       </c>
-      <c r="I481" s="22">
+      <c r="I481" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13618,7 +13550,7 @@
       <c r="H482" s="10">
         <v>43839</v>
       </c>
-      <c r="I482" s="22">
+      <c r="I482" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13645,7 +13577,7 @@
       <c r="H483" s="10">
         <v>43839</v>
       </c>
-      <c r="I483" s="22">
+      <c r="I483" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13672,7 +13604,7 @@
       <c r="H484" s="10">
         <v>43839</v>
       </c>
-      <c r="I484" s="22">
+      <c r="I484" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13699,7 +13631,7 @@
       <c r="H485" s="10">
         <v>43839</v>
       </c>
-      <c r="I485" s="22">
+      <c r="I485" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13726,7 +13658,7 @@
       <c r="H486" s="10">
         <v>43839</v>
       </c>
-      <c r="I486" s="22">
+      <c r="I486" s="16">
         <v>1</v>
       </c>
     </row>
@@ -13753,7 +13685,7 @@
       <c r="H487" s="10">
         <v>43839</v>
       </c>
-      <c r="I487" s="22">
+      <c r="I487" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13780,7 +13712,7 @@
       <c r="H488" s="10">
         <v>43839</v>
       </c>
-      <c r="I488" s="22">
+      <c r="I488" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13807,7 +13739,7 @@
       <c r="H489" s="10">
         <v>43839</v>
       </c>
-      <c r="I489" s="22">
+      <c r="I489" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13834,7 +13766,7 @@
       <c r="H490" s="10">
         <v>43839</v>
       </c>
-      <c r="I490" s="22">
+      <c r="I490" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13861,7 +13793,7 @@
       <c r="H491" s="10">
         <v>43839</v>
       </c>
-      <c r="I491" s="22">
+      <c r="I491" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13888,7 +13820,7 @@
       <c r="H492" s="10">
         <v>43839</v>
       </c>
-      <c r="I492" s="22">
+      <c r="I492" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13915,7 +13847,7 @@
       <c r="H493" s="10">
         <v>43839</v>
       </c>
-      <c r="I493" s="22">
+      <c r="I493" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13942,7 +13874,7 @@
       <c r="H494" s="10">
         <v>43839</v>
       </c>
-      <c r="I494" s="22">
+      <c r="I494" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13969,7 +13901,7 @@
       <c r="H495" s="10">
         <v>43839</v>
       </c>
-      <c r="I495" s="22">
+      <c r="I495" s="16">
         <v>0</v>
       </c>
     </row>
@@ -13996,7 +13928,7 @@
       <c r="H496" s="10">
         <v>43839</v>
       </c>
-      <c r="I496" s="22">
+      <c r="I496" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14023,7 +13955,7 @@
       <c r="H497" s="10">
         <v>43839</v>
       </c>
-      <c r="I497" s="22">
+      <c r="I497" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14050,7 +13982,7 @@
       <c r="H498" s="10">
         <v>43839</v>
       </c>
-      <c r="I498" s="22">
+      <c r="I498" s="16">
         <v>1</v>
       </c>
     </row>
@@ -14077,7 +14009,7 @@
       <c r="H499" s="10">
         <v>43839</v>
       </c>
-      <c r="I499" s="22">
+      <c r="I499" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14104,7 +14036,7 @@
       <c r="H500" s="10">
         <v>43839</v>
       </c>
-      <c r="I500" s="22">
+      <c r="I500" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14131,7 +14063,7 @@
       <c r="H501" s="10">
         <v>43839</v>
       </c>
-      <c r="I501" s="22">
+      <c r="I501" s="16">
         <v>1</v>
       </c>
     </row>
@@ -14158,7 +14090,7 @@
       <c r="H502" s="10">
         <v>43839</v>
       </c>
-      <c r="I502" s="22">
+      <c r="I502" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14185,7 +14117,7 @@
       <c r="H503" s="10">
         <v>43839</v>
       </c>
-      <c r="I503" s="22">
+      <c r="I503" s="16">
         <v>1</v>
       </c>
     </row>
@@ -14212,7 +14144,7 @@
       <c r="H504" s="10">
         <v>43839</v>
       </c>
-      <c r="I504" s="22">
+      <c r="I504" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14239,7 +14171,7 @@
       <c r="H505" s="10">
         <v>43839</v>
       </c>
-      <c r="I505" s="22">
+      <c r="I505" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14266,7 +14198,7 @@
       <c r="H506" s="10">
         <v>43839</v>
       </c>
-      <c r="I506" s="22">
+      <c r="I506" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14293,7 +14225,7 @@
       <c r="H507" s="10">
         <v>43839</v>
       </c>
-      <c r="I507" s="22">
+      <c r="I507" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14320,7 +14252,7 @@
       <c r="H508" s="10">
         <v>43839</v>
       </c>
-      <c r="I508" s="22">
+      <c r="I508" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14347,7 +14279,7 @@
       <c r="H509" s="10">
         <v>43839</v>
       </c>
-      <c r="I509" s="22">
+      <c r="I509" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14374,7 +14306,7 @@
       <c r="H510" s="10">
         <v>43839</v>
       </c>
-      <c r="I510" s="22">
+      <c r="I510" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14401,7 +14333,7 @@
       <c r="H511" s="10">
         <v>43839</v>
       </c>
-      <c r="I511" s="22">
+      <c r="I511" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14428,7 +14360,7 @@
       <c r="H512" s="10">
         <v>43839</v>
       </c>
-      <c r="I512" s="22">
+      <c r="I512" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14455,7 +14387,7 @@
       <c r="H513" s="10">
         <v>43839</v>
       </c>
-      <c r="I513" s="22">
+      <c r="I513" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14482,7 +14414,7 @@
       <c r="H514" s="10">
         <v>43839</v>
       </c>
-      <c r="I514" s="22">
+      <c r="I514" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14509,7 +14441,7 @@
       <c r="H515" s="10">
         <v>43839</v>
       </c>
-      <c r="I515" s="22">
+      <c r="I515" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14536,7 +14468,7 @@
       <c r="H516" s="10">
         <v>43839</v>
       </c>
-      <c r="I516" s="22">
+      <c r="I516" s="16">
         <v>1</v>
       </c>
     </row>
@@ -14563,7 +14495,7 @@
       <c r="H517" s="10">
         <v>43839</v>
       </c>
-      <c r="I517" s="22">
+      <c r="I517" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14590,7 +14522,7 @@
       <c r="H518" s="10">
         <v>43839</v>
       </c>
-      <c r="I518" s="22">
+      <c r="I518" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14617,7 +14549,7 @@
       <c r="H519" s="10">
         <v>43839</v>
       </c>
-      <c r="I519" s="22">
+      <c r="I519" s="16">
         <v>1</v>
       </c>
     </row>
@@ -14644,7 +14576,7 @@
       <c r="H520" s="10">
         <v>43839</v>
       </c>
-      <c r="I520" s="22">
+      <c r="I520" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14671,7 +14603,7 @@
       <c r="H521" s="10">
         <v>43839</v>
       </c>
-      <c r="I521" s="22">
+      <c r="I521" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14698,7 +14630,7 @@
       <c r="H522" s="10">
         <v>43839</v>
       </c>
-      <c r="I522" s="22">
+      <c r="I522" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14725,7 +14657,7 @@
       <c r="H523" s="10">
         <v>43839</v>
       </c>
-      <c r="I523" s="22">
+      <c r="I523" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14752,7 +14684,7 @@
       <c r="H524" s="10">
         <v>43839</v>
       </c>
-      <c r="I524" s="22">
+      <c r="I524" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14779,7 +14711,7 @@
       <c r="H525" s="10">
         <v>43839</v>
       </c>
-      <c r="I525" s="22">
+      <c r="I525" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14806,7 +14738,7 @@
       <c r="H526" s="10">
         <v>43839</v>
       </c>
-      <c r="I526" s="22">
+      <c r="I526" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14833,7 +14765,7 @@
       <c r="H527" s="10">
         <v>43839</v>
       </c>
-      <c r="I527" s="22">
+      <c r="I527" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14860,7 +14792,7 @@
       <c r="H528" s="10">
         <v>43839</v>
       </c>
-      <c r="I528" s="22">
+      <c r="I528" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14887,7 +14819,7 @@
       <c r="H529" s="10">
         <v>43839</v>
       </c>
-      <c r="I529" s="22">
+      <c r="I529" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14914,7 +14846,7 @@
       <c r="H530" s="10">
         <v>43839</v>
       </c>
-      <c r="I530" s="22">
+      <c r="I530" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14941,7 +14873,7 @@
       <c r="H531" s="10">
         <v>43839</v>
       </c>
-      <c r="I531" s="22">
+      <c r="I531" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14968,7 +14900,7 @@
       <c r="H532" s="10">
         <v>43839</v>
       </c>
-      <c r="I532" s="22">
+      <c r="I532" s="16">
         <v>0</v>
       </c>
     </row>
@@ -14995,7 +14927,7 @@
       <c r="H533" s="10">
         <v>43839</v>
       </c>
-      <c r="I533" s="22">
+      <c r="I533" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15022,7 +14954,7 @@
       <c r="H534" s="10">
         <v>43839</v>
       </c>
-      <c r="I534" s="22">
+      <c r="I534" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15049,7 +14981,7 @@
       <c r="H535" s="10">
         <v>43839</v>
       </c>
-      <c r="I535" s="22">
+      <c r="I535" s="16">
         <v>1</v>
       </c>
     </row>
@@ -15076,7 +15008,7 @@
       <c r="H536" s="10">
         <v>43839</v>
       </c>
-      <c r="I536" s="22">
+      <c r="I536" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15103,7 +15035,7 @@
       <c r="H537" s="10">
         <v>43839</v>
       </c>
-      <c r="I537" s="22">
+      <c r="I537" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15130,7 +15062,7 @@
       <c r="H538" s="10">
         <v>43839</v>
       </c>
-      <c r="I538" s="22">
+      <c r="I538" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15157,7 +15089,7 @@
       <c r="H539" s="10">
         <v>43839</v>
       </c>
-      <c r="I539" s="22">
+      <c r="I539" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15184,7 +15116,7 @@
       <c r="H540" s="10">
         <v>43839</v>
       </c>
-      <c r="I540" s="22">
+      <c r="I540" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15211,7 +15143,7 @@
       <c r="H541" s="10">
         <v>43839</v>
       </c>
-      <c r="I541" s="22">
+      <c r="I541" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15238,7 +15170,7 @@
       <c r="H542" s="10">
         <v>43839</v>
       </c>
-      <c r="I542" s="22">
+      <c r="I542" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15265,7 +15197,7 @@
       <c r="H543" s="10">
         <v>43839</v>
       </c>
-      <c r="I543" s="22">
+      <c r="I543" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15292,7 +15224,7 @@
       <c r="H544" s="10">
         <v>43839</v>
       </c>
-      <c r="I544" s="22">
+      <c r="I544" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15319,7 +15251,7 @@
       <c r="H545" s="10">
         <v>43839</v>
       </c>
-      <c r="I545" s="22">
+      <c r="I545" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15346,7 +15278,7 @@
       <c r="H546" s="10">
         <v>43839</v>
       </c>
-      <c r="I546" s="22">
+      <c r="I546" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15373,7 +15305,7 @@
       <c r="H547" s="10">
         <v>43839</v>
       </c>
-      <c r="I547" s="22">
+      <c r="I547" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15400,7 +15332,7 @@
       <c r="H548" s="10">
         <v>43839</v>
       </c>
-      <c r="I548" s="22">
+      <c r="I548" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15427,7 +15359,7 @@
       <c r="H549" s="10">
         <v>43839</v>
       </c>
-      <c r="I549" s="22">
+      <c r="I549" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15456,7 +15388,7 @@
       <c r="H550" s="10">
         <v>43839</v>
       </c>
-      <c r="I550" s="22">
+      <c r="I550" s="16">
         <v>1</v>
       </c>
     </row>
@@ -15485,7 +15417,7 @@
       <c r="H551" s="10">
         <v>43839</v>
       </c>
-      <c r="I551" s="22">
+      <c r="I551" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15514,7 +15446,7 @@
       <c r="H552" s="10">
         <v>43839</v>
       </c>
-      <c r="I552" s="22">
+      <c r="I552" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15541,7 +15473,7 @@
       <c r="H553" s="10">
         <v>43839</v>
       </c>
-      <c r="I553" s="22">
+      <c r="I553" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15568,7 +15500,7 @@
       <c r="H554" s="10">
         <v>43839</v>
       </c>
-      <c r="I554" s="22">
+      <c r="I554" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15595,7 +15527,7 @@
       <c r="H555" s="10">
         <v>43839</v>
       </c>
-      <c r="I555" s="22">
+      <c r="I555" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15622,7 +15554,7 @@
       <c r="H556" s="10">
         <v>43839</v>
       </c>
-      <c r="I556" s="22">
+      <c r="I556" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15649,7 +15581,7 @@
       <c r="H557" s="10">
         <v>43839</v>
       </c>
-      <c r="I557" s="22">
+      <c r="I557" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15676,7 +15608,7 @@
       <c r="H558" s="10">
         <v>43839</v>
       </c>
-      <c r="I558" s="22">
+      <c r="I558" s="16">
         <v>1</v>
       </c>
     </row>
@@ -15703,7 +15635,7 @@
       <c r="H559" s="10">
         <v>43839</v>
       </c>
-      <c r="I559" s="22">
+      <c r="I559" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15730,7 +15662,7 @@
       <c r="H560" s="10">
         <v>43839</v>
       </c>
-      <c r="I560" s="22">
+      <c r="I560" s="16">
         <v>1</v>
       </c>
     </row>
@@ -15757,7 +15689,7 @@
       <c r="H561" s="10">
         <v>43839</v>
       </c>
-      <c r="I561" s="22">
+      <c r="I561" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15784,7 +15716,7 @@
       <c r="H562" s="10">
         <v>43839</v>
       </c>
-      <c r="I562" s="22">
+      <c r="I562" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15811,7 +15743,7 @@
       <c r="H563" s="10">
         <v>43839</v>
       </c>
-      <c r="I563" s="22">
+      <c r="I563" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15838,7 +15770,7 @@
       <c r="H564" s="10">
         <v>43839</v>
       </c>
-      <c r="I564" s="22">
+      <c r="I564" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15865,7 +15797,7 @@
       <c r="H565" s="10">
         <v>43839</v>
       </c>
-      <c r="I565" s="22">
+      <c r="I565" s="16">
         <v>1</v>
       </c>
     </row>
@@ -15892,7 +15824,7 @@
       <c r="H566" s="10">
         <v>43839</v>
       </c>
-      <c r="I566" s="22">
+      <c r="I566" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15919,7 +15851,7 @@
       <c r="H567" s="10">
         <v>43839</v>
       </c>
-      <c r="I567" s="22">
+      <c r="I567" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15946,7 +15878,7 @@
       <c r="H568" s="10">
         <v>43839</v>
       </c>
-      <c r="I568" s="22">
+      <c r="I568" s="16">
         <v>0</v>
       </c>
     </row>
@@ -15973,7 +15905,7 @@
       <c r="H569" s="10">
         <v>43839</v>
       </c>
-      <c r="I569" s="22">
+      <c r="I569" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16000,7 +15932,7 @@
       <c r="H570" s="10">
         <v>43839</v>
       </c>
-      <c r="I570" s="22">
+      <c r="I570" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16027,7 +15959,7 @@
       <c r="H571" s="10">
         <v>43839</v>
       </c>
-      <c r="I571" s="22">
+      <c r="I571" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16054,7 +15986,7 @@
       <c r="H572" s="10">
         <v>43839</v>
       </c>
-      <c r="I572" s="22">
+      <c r="I572" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16081,7 +16013,7 @@
       <c r="H573" s="10">
         <v>43839</v>
       </c>
-      <c r="I573" s="22">
+      <c r="I573" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16108,7 +16040,7 @@
       <c r="H574" s="10">
         <v>43839</v>
       </c>
-      <c r="I574" s="22">
+      <c r="I574" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16135,7 +16067,7 @@
       <c r="H575" s="10">
         <v>43839</v>
       </c>
-      <c r="I575" s="22">
+      <c r="I575" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16162,7 +16094,7 @@
       <c r="H576" s="10">
         <v>43839</v>
       </c>
-      <c r="I576" s="22">
+      <c r="I576" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16189,7 +16121,7 @@
       <c r="H577" s="10">
         <v>43839</v>
       </c>
-      <c r="I577" s="22">
+      <c r="I577" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16216,7 +16148,7 @@
       <c r="H578" s="10">
         <v>43839</v>
       </c>
-      <c r="I578" s="22">
+      <c r="I578" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16243,7 +16175,7 @@
       <c r="H579" s="10">
         <v>43839</v>
       </c>
-      <c r="I579" s="22">
+      <c r="I579" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16270,7 +16202,7 @@
       <c r="H580" s="10">
         <v>43839</v>
       </c>
-      <c r="I580" s="22">
+      <c r="I580" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16297,7 +16229,7 @@
       <c r="H581" s="10">
         <v>43839</v>
       </c>
-      <c r="I581" s="22">
+      <c r="I581" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16324,7 +16256,7 @@
       <c r="H582" s="10">
         <v>43839</v>
       </c>
-      <c r="I582" s="22">
+      <c r="I582" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16351,7 +16283,7 @@
       <c r="H583" s="10">
         <v>43839</v>
       </c>
-      <c r="I583" s="22">
+      <c r="I583" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16378,7 +16310,7 @@
       <c r="H584" s="10">
         <v>43839</v>
       </c>
-      <c r="I584" s="22">
+      <c r="I584" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16405,7 +16337,7 @@
       <c r="H585" s="10">
         <v>43839</v>
       </c>
-      <c r="I585" s="22">
+      <c r="I585" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16432,7 +16364,7 @@
       <c r="H586" s="10">
         <v>43839</v>
       </c>
-      <c r="I586" s="22">
+      <c r="I586" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16461,7 +16393,7 @@
       <c r="H587" s="10">
         <v>43839</v>
       </c>
-      <c r="I587" s="22">
+      <c r="I587" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16488,7 +16420,7 @@
       <c r="H588" s="10">
         <v>43839</v>
       </c>
-      <c r="I588" s="22">
+      <c r="I588" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16515,7 +16447,7 @@
       <c r="H589" s="10">
         <v>43839</v>
       </c>
-      <c r="I589" s="22">
+      <c r="I589" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16542,7 +16474,7 @@
       <c r="H590" s="10">
         <v>43839</v>
       </c>
-      <c r="I590" s="22">
+      <c r="I590" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16569,7 +16501,7 @@
       <c r="H591" s="10">
         <v>43839</v>
       </c>
-      <c r="I591" s="22">
+      <c r="I591" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16596,7 +16528,7 @@
       <c r="H592" s="10">
         <v>43839</v>
       </c>
-      <c r="I592" s="22">
+      <c r="I592" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16623,7 +16555,7 @@
       <c r="H593" s="10">
         <v>43839</v>
       </c>
-      <c r="I593" s="22">
+      <c r="I593" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16650,7 +16582,7 @@
       <c r="H594" s="10">
         <v>43839</v>
       </c>
-      <c r="I594" s="22">
+      <c r="I594" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16677,7 +16609,7 @@
       <c r="H595" s="10">
         <v>43839</v>
       </c>
-      <c r="I595" s="22">
+      <c r="I595" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16704,7 +16636,7 @@
       <c r="H596" s="10">
         <v>43839</v>
       </c>
-      <c r="I596" s="22">
+      <c r="I596" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16731,7 +16663,7 @@
       <c r="H597" s="10">
         <v>43839</v>
       </c>
-      <c r="I597" s="22">
+      <c r="I597" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16758,7 +16690,7 @@
       <c r="H598" s="10">
         <v>43839</v>
       </c>
-      <c r="I598" s="22">
+      <c r="I598" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16785,7 +16717,7 @@
       <c r="H599" s="10">
         <v>43839</v>
       </c>
-      <c r="I599" s="22">
+      <c r="I599" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16812,7 +16744,7 @@
       <c r="H600" s="10">
         <v>43839</v>
       </c>
-      <c r="I600" s="22">
+      <c r="I600" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16839,7 +16771,7 @@
       <c r="H601" s="10">
         <v>43839</v>
       </c>
-      <c r="I601" s="22">
+      <c r="I601" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16866,7 +16798,7 @@
       <c r="H602" s="10">
         <v>43839</v>
       </c>
-      <c r="I602" s="22">
+      <c r="I602" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16893,7 +16825,7 @@
       <c r="H603" s="10">
         <v>43839</v>
       </c>
-      <c r="I603" s="22">
+      <c r="I603" s="16">
         <v>1</v>
       </c>
     </row>
@@ -16920,7 +16852,7 @@
       <c r="H604" s="10">
         <v>43839</v>
       </c>
-      <c r="I604" s="22">
+      <c r="I604" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16947,7 +16879,7 @@
       <c r="H605" s="10">
         <v>43839</v>
       </c>
-      <c r="I605" s="22">
+      <c r="I605" s="16">
         <v>0</v>
       </c>
     </row>
@@ -16974,7 +16906,7 @@
       <c r="H606" s="10">
         <v>43839</v>
       </c>
-      <c r="I606" s="22">
+      <c r="I606" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17001,7 +16933,7 @@
       <c r="H607" s="10">
         <v>43839</v>
       </c>
-      <c r="I607" s="22">
+      <c r="I607" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17028,7 +16960,7 @@
       <c r="H608" s="10">
         <v>43839</v>
       </c>
-      <c r="I608" s="22">
+      <c r="I608" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17055,7 +16987,7 @@
       <c r="H609" s="10">
         <v>43839</v>
       </c>
-      <c r="I609" s="22">
+      <c r="I609" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17082,7 +17014,7 @@
       <c r="H610" s="10">
         <v>43839</v>
       </c>
-      <c r="I610" s="22">
+      <c r="I610" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17109,7 +17041,7 @@
       <c r="H611" s="10">
         <v>43839</v>
       </c>
-      <c r="I611" s="22">
+      <c r="I611" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17136,7 +17068,7 @@
       <c r="H612" s="10">
         <v>43839</v>
       </c>
-      <c r="I612" s="22">
+      <c r="I612" s="16">
         <v>1</v>
       </c>
     </row>
@@ -17163,7 +17095,7 @@
       <c r="H613" s="10">
         <v>43839</v>
       </c>
-      <c r="I613" s="22">
+      <c r="I613" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17190,7 +17122,7 @@
       <c r="H614" s="10">
         <v>43839</v>
       </c>
-      <c r="I614" s="22">
+      <c r="I614" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17217,7 +17149,7 @@
       <c r="H615" s="10">
         <v>43839</v>
       </c>
-      <c r="I615" s="22">
+      <c r="I615" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17244,7 +17176,7 @@
       <c r="H616" s="10">
         <v>43839</v>
       </c>
-      <c r="I616" s="22">
+      <c r="I616" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17271,7 +17203,7 @@
       <c r="H617" s="10">
         <v>43839</v>
       </c>
-      <c r="I617" s="22">
+      <c r="I617" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17298,7 +17230,7 @@
       <c r="H618" s="10">
         <v>43839</v>
       </c>
-      <c r="I618" s="22">
+      <c r="I618" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17325,7 +17257,7 @@
       <c r="H619" s="10">
         <v>43839</v>
       </c>
-      <c r="I619" s="22">
+      <c r="I619" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17352,7 +17284,7 @@
       <c r="H620" s="10">
         <v>43839</v>
       </c>
-      <c r="I620" s="22">
+      <c r="I620" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17379,7 +17311,7 @@
       <c r="H621" s="10">
         <v>43839</v>
       </c>
-      <c r="I621" s="22">
+      <c r="I621" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17406,7 +17338,7 @@
       <c r="H622" s="10">
         <v>43839</v>
       </c>
-      <c r="I622" s="22">
+      <c r="I622" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17433,7 +17365,7 @@
       <c r="H623" s="10">
         <v>43839</v>
       </c>
-      <c r="I623" s="22">
+      <c r="I623" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17460,7 +17392,7 @@
       <c r="H624" s="10">
         <v>43839</v>
       </c>
-      <c r="I624" s="22">
+      <c r="I624" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17487,7 +17419,7 @@
       <c r="H625" s="10">
         <v>43839</v>
       </c>
-      <c r="I625" s="22">
+      <c r="I625" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17514,7 +17446,7 @@
       <c r="H626" s="10">
         <v>43839</v>
       </c>
-      <c r="I626" s="22">
+      <c r="I626" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17541,7 +17473,7 @@
       <c r="H627" s="10">
         <v>43839</v>
       </c>
-      <c r="I627" s="22">
+      <c r="I627" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17568,7 +17500,7 @@
       <c r="H628" s="10">
         <v>43839</v>
       </c>
-      <c r="I628" s="22">
+      <c r="I628" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17595,7 +17527,7 @@
       <c r="H629" s="10">
         <v>43839</v>
       </c>
-      <c r="I629" s="22">
+      <c r="I629" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17622,7 +17554,7 @@
       <c r="H630" s="10">
         <v>43839</v>
       </c>
-      <c r="I630" s="22">
+      <c r="I630" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17649,7 +17581,7 @@
       <c r="H631" s="10">
         <v>43839</v>
       </c>
-      <c r="I631" s="22">
+      <c r="I631" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17676,7 +17608,7 @@
       <c r="H632" s="10">
         <v>43839</v>
       </c>
-      <c r="I632" s="22">
+      <c r="I632" s="16">
         <v>1</v>
       </c>
     </row>
@@ -17703,7 +17635,7 @@
       <c r="H633" s="10">
         <v>43839</v>
       </c>
-      <c r="I633" s="22">
+      <c r="I633" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17730,7 +17662,7 @@
       <c r="H634" s="10">
         <v>43839</v>
       </c>
-      <c r="I634" s="22">
+      <c r="I634" s="16">
         <v>1</v>
       </c>
     </row>
@@ -17757,7 +17689,7 @@
       <c r="H635" s="10">
         <v>43839</v>
       </c>
-      <c r="I635" s="22">
+      <c r="I635" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17784,7 +17716,7 @@
       <c r="H636" s="10">
         <v>43839</v>
       </c>
-      <c r="I636" s="22">
+      <c r="I636" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17811,7 +17743,7 @@
       <c r="H637" s="10">
         <v>43839</v>
       </c>
-      <c r="I637" s="22">
+      <c r="I637" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17838,7 +17770,7 @@
       <c r="H638" s="10">
         <v>43839</v>
       </c>
-      <c r="I638" s="22">
+      <c r="I638" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17865,7 +17797,7 @@
       <c r="H639" s="10">
         <v>43839</v>
       </c>
-      <c r="I639" s="22">
+      <c r="I639" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17892,7 +17824,7 @@
       <c r="H640" s="10">
         <v>43839</v>
       </c>
-      <c r="I640" s="22">
+      <c r="I640" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17919,7 +17851,7 @@
       <c r="H641" s="10">
         <v>43839</v>
       </c>
-      <c r="I641" s="22">
+      <c r="I641" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17946,7 +17878,7 @@
       <c r="H642" s="10">
         <v>43839</v>
       </c>
-      <c r="I642" s="22">
+      <c r="I642" s="16">
         <v>0</v>
       </c>
     </row>
@@ -17973,7 +17905,7 @@
       <c r="H643" s="10">
         <v>43839</v>
       </c>
-      <c r="I643" s="22">
+      <c r="I643" s="16">
         <v>1</v>
       </c>
     </row>
@@ -18002,7 +17934,7 @@
       <c r="H644" s="10">
         <v>43839</v>
       </c>
-      <c r="I644" s="22">
+      <c r="I644" s="16">
         <v>1</v>
       </c>
     </row>
@@ -18029,7 +17961,7 @@
       <c r="H645" s="10">
         <v>43839</v>
       </c>
-      <c r="I645" s="22">
+      <c r="I645" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18056,7 +17988,7 @@
       <c r="H646" s="10">
         <v>43839</v>
       </c>
-      <c r="I646" s="22">
+      <c r="I646" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18083,7 +18015,7 @@
       <c r="H647" s="10">
         <v>43839</v>
       </c>
-      <c r="I647" s="22">
+      <c r="I647" s="16">
         <v>1</v>
       </c>
     </row>
@@ -18112,7 +18044,7 @@
       <c r="H648" s="10">
         <v>43839</v>
       </c>
-      <c r="I648" s="22">
+      <c r="I648" s="16">
         <v>1</v>
       </c>
     </row>
@@ -18139,7 +18071,7 @@
       <c r="H649" s="10">
         <v>43839</v>
       </c>
-      <c r="I649" s="22">
+      <c r="I649" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18166,7 +18098,7 @@
       <c r="H650" s="10">
         <v>43839</v>
       </c>
-      <c r="I650" s="22">
+      <c r="I650" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18193,7 +18125,7 @@
       <c r="H651" s="10">
         <v>43839</v>
       </c>
-      <c r="I651" s="22">
+      <c r="I651" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18220,7 +18152,7 @@
       <c r="H652" s="10">
         <v>43839</v>
       </c>
-      <c r="I652" s="22">
+      <c r="I652" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18247,7 +18179,7 @@
       <c r="H653" s="10">
         <v>43839</v>
       </c>
-      <c r="I653" s="22">
+      <c r="I653" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18274,7 +18206,7 @@
       <c r="H654" s="10">
         <v>43839</v>
       </c>
-      <c r="I654" s="22">
+      <c r="I654" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18301,7 +18233,7 @@
       <c r="H655" s="10">
         <v>43839</v>
       </c>
-      <c r="I655" s="22">
+      <c r="I655" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18328,7 +18260,7 @@
       <c r="H656" s="10">
         <v>43839</v>
       </c>
-      <c r="I656" s="22">
+      <c r="I656" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18355,7 +18287,7 @@
       <c r="H657" s="10">
         <v>43839</v>
       </c>
-      <c r="I657" s="22">
+      <c r="I657" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18382,7 +18314,7 @@
       <c r="H658" s="10">
         <v>43839</v>
       </c>
-      <c r="I658" s="22">
+      <c r="I658" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18409,7 +18341,7 @@
       <c r="H659" s="10">
         <v>43839</v>
       </c>
-      <c r="I659" s="22">
+      <c r="I659" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18436,7 +18368,7 @@
       <c r="H660" s="10">
         <v>43839</v>
       </c>
-      <c r="I660" s="22">
+      <c r="I660" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18463,7 +18395,7 @@
       <c r="H661" s="10">
         <v>43839</v>
       </c>
-      <c r="I661" s="22">
+      <c r="I661" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18490,7 +18422,7 @@
       <c r="H662" s="10">
         <v>43839</v>
       </c>
-      <c r="I662" s="22">
+      <c r="I662" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18517,7 +18449,7 @@
       <c r="H663" s="10">
         <v>43839</v>
       </c>
-      <c r="I663" s="22">
+      <c r="I663" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18544,7 +18476,7 @@
       <c r="H664" s="10">
         <v>43839</v>
       </c>
-      <c r="I664" s="22">
+      <c r="I664" s="16">
         <v>1</v>
       </c>
     </row>
@@ -18571,7 +18503,7 @@
       <c r="H665" s="10">
         <v>43839</v>
       </c>
-      <c r="I665" s="22">
+      <c r="I665" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18598,7 +18530,7 @@
       <c r="H666" s="10">
         <v>43839</v>
       </c>
-      <c r="I666" s="22">
+      <c r="I666" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18625,7 +18557,7 @@
       <c r="H667" s="10">
         <v>43839</v>
       </c>
-      <c r="I667" s="22">
+      <c r="I667" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18652,7 +18584,7 @@
       <c r="H668" s="10">
         <v>43839</v>
       </c>
-      <c r="I668" s="22">
+      <c r="I668" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18679,7 +18611,7 @@
       <c r="H669" s="10">
         <v>43839</v>
       </c>
-      <c r="I669" s="22">
+      <c r="I669" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18706,7 +18638,7 @@
       <c r="H670" s="10">
         <v>43839</v>
       </c>
-      <c r="I670" s="22">
+      <c r="I670" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18733,7 +18665,7 @@
       <c r="H671" s="10">
         <v>43839</v>
       </c>
-      <c r="I671" s="22">
+      <c r="I671" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18760,7 +18692,7 @@
       <c r="H672" s="10">
         <v>43839</v>
       </c>
-      <c r="I672" s="22">
+      <c r="I672" s="16">
         <v>1</v>
       </c>
     </row>
@@ -18787,7 +18719,7 @@
       <c r="H673" s="10">
         <v>43839</v>
       </c>
-      <c r="I673" s="22">
+      <c r="I673" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18814,7 +18746,7 @@
       <c r="H674" s="10">
         <v>43839</v>
       </c>
-      <c r="I674" s="22">
+      <c r="I674" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18841,7 +18773,7 @@
       <c r="H675" s="10">
         <v>43839</v>
       </c>
-      <c r="I675" s="22">
+      <c r="I675" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18868,7 +18800,7 @@
       <c r="H676" s="10">
         <v>43839</v>
       </c>
-      <c r="I676" s="22">
+      <c r="I676" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18895,7 +18827,7 @@
       <c r="H677" s="10">
         <v>43839</v>
       </c>
-      <c r="I677" s="22">
+      <c r="I677" s="16">
         <v>1</v>
       </c>
     </row>
@@ -18922,7 +18854,7 @@
       <c r="H678" s="10">
         <v>43839</v>
       </c>
-      <c r="I678" s="22">
+      <c r="I678" s="16">
         <v>0</v>
       </c>
     </row>
@@ -18949,7 +18881,7 @@
       <c r="H679" s="10">
         <v>43839</v>
       </c>
-      <c r="I679" s="22">
+      <c r="I679" s="16">
         <v>1</v>
       </c>
     </row>
@@ -18976,7 +18908,7 @@
       <c r="H680" s="10">
         <v>43839</v>
       </c>
-      <c r="I680" s="22">
+      <c r="I680" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19003,7 +18935,7 @@
       <c r="H681" s="10">
         <v>43839</v>
       </c>
-      <c r="I681" s="22">
+      <c r="I681" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19030,7 +18962,7 @@
       <c r="H682" s="10">
         <v>43839</v>
       </c>
-      <c r="I682" s="22">
+      <c r="I682" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19057,7 +18989,7 @@
       <c r="H683" s="10">
         <v>43839</v>
       </c>
-      <c r="I683" s="22">
+      <c r="I683" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19084,7 +19016,7 @@
       <c r="H684" s="10">
         <v>43839</v>
       </c>
-      <c r="I684" s="22">
+      <c r="I684" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19111,7 +19043,7 @@
       <c r="H685" s="10">
         <v>43839</v>
       </c>
-      <c r="I685" s="22">
+      <c r="I685" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19138,7 +19070,7 @@
       <c r="H686" s="10">
         <v>43839</v>
       </c>
-      <c r="I686" s="22">
+      <c r="I686" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19165,7 +19097,7 @@
       <c r="H687" s="10">
         <v>43839</v>
       </c>
-      <c r="I687" s="22">
+      <c r="I687" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19192,7 +19124,7 @@
       <c r="H688" s="10">
         <v>43839</v>
       </c>
-      <c r="I688" s="22">
+      <c r="I688" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19219,7 +19151,7 @@
       <c r="H689" s="10">
         <v>43839</v>
       </c>
-      <c r="I689" s="22">
+      <c r="I689" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19246,7 +19178,7 @@
       <c r="H690" s="10">
         <v>43839</v>
       </c>
-      <c r="I690" s="22">
+      <c r="I690" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19273,7 +19205,7 @@
       <c r="H691" s="10">
         <v>43839</v>
       </c>
-      <c r="I691" s="22">
+      <c r="I691" s="16">
         <v>1</v>
       </c>
     </row>
@@ -19300,7 +19232,7 @@
       <c r="H692" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I692" s="22">
+      <c r="I692" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19327,7 +19259,7 @@
       <c r="H693" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I693" s="22">
+      <c r="I693" s="16">
         <v>1</v>
       </c>
     </row>
@@ -19354,7 +19286,7 @@
       <c r="H694" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I694" s="22">
+      <c r="I694" s="16">
         <v>1</v>
       </c>
     </row>
@@ -19381,7 +19313,7 @@
       <c r="H695" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I695" s="22">
+      <c r="I695" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19408,7 +19340,7 @@
       <c r="H696" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I696" s="22">
+      <c r="I696" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19435,7 +19367,7 @@
       <c r="H697" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I697" s="22">
+      <c r="I697" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19462,7 +19394,7 @@
       <c r="H698" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I698" s="22">
+      <c r="I698" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19489,7 +19421,7 @@
       <c r="H699" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I699" s="22">
+      <c r="I699" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19516,7 +19448,7 @@
       <c r="H700" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I700" s="22">
+      <c r="I700" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19543,7 +19475,7 @@
       <c r="H701" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I701" s="22">
+      <c r="I701" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19570,7 +19502,7 @@
       <c r="H702" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I702" s="22">
+      <c r="I702" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19597,7 +19529,7 @@
       <c r="H703" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I703" s="22">
+      <c r="I703" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19624,7 +19556,7 @@
       <c r="H704" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I704" s="22">
+      <c r="I704" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19651,7 +19583,7 @@
       <c r="H705" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I705" s="22">
+      <c r="I705" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19678,7 +19610,7 @@
       <c r="H706" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I706" s="22">
+      <c r="I706" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19705,7 +19637,7 @@
       <c r="H707" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I707" s="22">
+      <c r="I707" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19732,7 +19664,7 @@
       <c r="H708" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I708" s="22">
+      <c r="I708" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19759,7 +19691,7 @@
       <c r="H709" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I709" s="22">
+      <c r="I709" s="16">
         <v>1</v>
       </c>
     </row>
@@ -19786,7 +19718,7 @@
       <c r="H710" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I710" s="22">
+      <c r="I710" s="16">
         <v>1</v>
       </c>
     </row>
@@ -19813,7 +19745,7 @@
       <c r="H711" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I711" s="22">
+      <c r="I711" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19840,7 +19772,7 @@
       <c r="H712" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I712" s="22">
+      <c r="I712" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19867,7 +19799,7 @@
       <c r="H713" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I713" s="22">
+      <c r="I713" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19894,7 +19826,7 @@
       <c r="H714" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I714" s="22">
+      <c r="I714" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19921,7 +19853,7 @@
       <c r="H715" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I715" s="22">
+      <c r="I715" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19948,7 +19880,7 @@
       <c r="H716" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I716" s="22">
+      <c r="I716" s="16">
         <v>0</v>
       </c>
     </row>
@@ -19977,7 +19909,7 @@
       <c r="H717" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I717" s="22">
+      <c r="I717" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20004,7 +19936,7 @@
       <c r="H718" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I718" s="22">
+      <c r="I718" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20031,7 +19963,7 @@
       <c r="H719" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I719" s="22">
+      <c r="I719" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20058,7 +19990,7 @@
       <c r="H720" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I720" s="22">
+      <c r="I720" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20085,7 +20017,7 @@
       <c r="H721" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I721" s="22">
+      <c r="I721" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20112,7 +20044,7 @@
       <c r="H722" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I722" s="22">
+      <c r="I722" s="16">
         <v>1</v>
       </c>
     </row>
@@ -20139,7 +20071,7 @@
       <c r="H723" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I723" s="22">
+      <c r="I723" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20166,7 +20098,7 @@
       <c r="H724" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I724" s="22">
+      <c r="I724" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20193,7 +20125,7 @@
       <c r="H725" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I725" s="22">
+      <c r="I725" s="16">
         <v>1</v>
       </c>
     </row>
@@ -20220,7 +20152,7 @@
       <c r="H726" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I726" s="22">
+      <c r="I726" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20247,7 +20179,7 @@
       <c r="H727" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I727" s="22">
+      <c r="I727" s="16">
         <v>1</v>
       </c>
     </row>
@@ -20274,7 +20206,7 @@
       <c r="H728" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I728" s="22">
+      <c r="I728" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20301,7 +20233,7 @@
       <c r="H729" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I729" s="22">
+      <c r="I729" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20328,7 +20260,7 @@
       <c r="H730" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I730" s="22">
+      <c r="I730" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20355,7 +20287,7 @@
       <c r="H731" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I731" s="22">
+      <c r="I731" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20382,7 +20314,7 @@
       <c r="H732" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I732" s="22">
+      <c r="I732" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20409,7 +20341,7 @@
       <c r="H733" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I733" s="22">
+      <c r="I733" s="16">
         <v>1</v>
       </c>
     </row>
@@ -20436,7 +20368,7 @@
       <c r="H734" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I734" s="22">
+      <c r="I734" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20463,7 +20395,7 @@
       <c r="H735" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I735" s="22">
+      <c r="I735" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20490,7 +20422,7 @@
       <c r="H736" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I736" s="22">
+      <c r="I736" s="16">
         <v>1</v>
       </c>
     </row>
@@ -20517,7 +20449,7 @@
       <c r="H737" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I737" s="22">
+      <c r="I737" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20544,7 +20476,7 @@
       <c r="H738" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I738" s="22">
+      <c r="I738" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20571,7 +20503,7 @@
       <c r="H739" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I739" s="22">
+      <c r="I739" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20598,7 +20530,7 @@
       <c r="H740" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I740" s="22">
+      <c r="I740" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20625,7 +20557,7 @@
       <c r="H741" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I741" s="22">
+      <c r="I741" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20652,7 +20584,7 @@
       <c r="H742" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I742" s="22">
+      <c r="I742" s="16">
         <v>1</v>
       </c>
     </row>
@@ -20679,7 +20611,7 @@
       <c r="H743" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I743" s="22">
+      <c r="I743" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20706,7 +20638,7 @@
       <c r="H744" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I744" s="22">
+      <c r="I744" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20733,7 +20665,7 @@
       <c r="H745" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I745" s="22">
+      <c r="I745" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20760,7 +20692,7 @@
       <c r="H746" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I746" s="22">
+      <c r="I746" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20787,7 +20719,7 @@
       <c r="H747" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I747" s="22">
+      <c r="I747" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20814,7 +20746,7 @@
       <c r="H748" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I748" s="22">
+      <c r="I748" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20841,7 +20773,7 @@
       <c r="H749" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I749" s="22">
+      <c r="I749" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20868,7 +20800,7 @@
       <c r="H750" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I750" s="22">
+      <c r="I750" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20895,7 +20827,7 @@
       <c r="H751" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I751" s="22">
+      <c r="I751" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20922,7 +20854,7 @@
       <c r="H752" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I752" s="22">
+      <c r="I752" s="16">
         <v>1</v>
       </c>
     </row>
@@ -20949,7 +20881,7 @@
       <c r="H753" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I753" s="22">
+      <c r="I753" s="16">
         <v>0</v>
       </c>
     </row>
@@ -20976,7 +20908,7 @@
       <c r="H754" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I754" s="22">
+      <c r="I754" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21003,7 +20935,7 @@
       <c r="H755" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I755" s="22">
+      <c r="I755" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21030,7 +20962,7 @@
       <c r="H756" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I756" s="22">
+      <c r="I756" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21057,7 +20989,7 @@
       <c r="H757" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I757" s="22">
+      <c r="I757" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21084,7 +21016,7 @@
       <c r="H758" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I758" s="22">
+      <c r="I758" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21111,7 +21043,7 @@
       <c r="H759" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I759" s="22">
+      <c r="I759" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21138,7 +21070,7 @@
       <c r="H760" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I760" s="22">
+      <c r="I760" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21165,7 +21097,7 @@
       <c r="H761" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I761" s="22">
+      <c r="I761" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21192,7 +21124,7 @@
       <c r="H762" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I762" s="22">
+      <c r="I762" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21219,7 +21151,7 @@
       <c r="H763" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I763" s="22">
+      <c r="I763" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21246,7 +21178,7 @@
       <c r="H764" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I764" s="22">
+      <c r="I764" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21273,7 +21205,7 @@
       <c r="H765" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I765" s="22">
+      <c r="I765" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21300,7 +21232,7 @@
       <c r="H766" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I766" s="22">
+      <c r="I766" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21327,7 +21259,7 @@
       <c r="H767" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I767" s="22">
+      <c r="I767" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21354,7 +21286,7 @@
       <c r="H768" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I768" s="22">
+      <c r="I768" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21381,7 +21313,7 @@
       <c r="H769" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I769" s="22">
+      <c r="I769" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21408,7 +21340,7 @@
       <c r="H770" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I770" s="22">
+      <c r="I770" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21435,7 +21367,7 @@
       <c r="H771" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I771" s="22">
+      <c r="I771" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21462,7 +21394,7 @@
       <c r="H772" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I772" s="22">
+      <c r="I772" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21489,7 +21421,7 @@
       <c r="H773" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I773" s="22">
+      <c r="I773" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21516,7 +21448,7 @@
       <c r="H774" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I774" s="22">
+      <c r="I774" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21543,7 +21475,7 @@
       <c r="H775" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I775" s="22">
+      <c r="I775" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21570,7 +21502,7 @@
       <c r="H776" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I776" s="22">
+      <c r="I776" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21597,7 +21529,7 @@
       <c r="H777" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I777" s="22">
+      <c r="I777" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21624,7 +21556,7 @@
       <c r="H778" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I778" s="22">
+      <c r="I778" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21651,7 +21583,7 @@
       <c r="H779" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I779" s="22">
+      <c r="I779" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21678,7 +21610,7 @@
       <c r="H780" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I780" s="22">
+      <c r="I780" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21705,7 +21637,7 @@
       <c r="H781" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I781" s="22">
+      <c r="I781" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21732,7 +21664,7 @@
       <c r="H782" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I782" s="22">
+      <c r="I782" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21759,7 +21691,7 @@
       <c r="H783" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I783" s="22">
+      <c r="I783" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21786,7 +21718,7 @@
       <c r="H784" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I784" s="22">
+      <c r="I784" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21813,7 +21745,7 @@
       <c r="H785" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I785" s="22">
+      <c r="I785" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21840,7 +21772,7 @@
       <c r="H786" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I786" s="22">
+      <c r="I786" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21867,7 +21799,7 @@
       <c r="H787" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I787" s="22">
+      <c r="I787" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21894,7 +21826,7 @@
       <c r="H788" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I788" s="22">
+      <c r="I788" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21921,7 +21853,7 @@
       <c r="H789" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I789" s="22">
+      <c r="I789" s="16">
         <v>0</v>
       </c>
     </row>
@@ -21948,7 +21880,7 @@
       <c r="H790" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I790" s="22">
+      <c r="I790" s="16">
         <v>1</v>
       </c>
     </row>
@@ -21975,7 +21907,7 @@
       <c r="H791" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I791" s="22">
+      <c r="I791" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22002,7 +21934,7 @@
       <c r="H792" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I792" s="22">
+      <c r="I792" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22029,7 +21961,7 @@
       <c r="H793" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I793" s="22">
+      <c r="I793" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22056,7 +21988,7 @@
       <c r="H794" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I794" s="22">
+      <c r="I794" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22083,7 +22015,7 @@
       <c r="H795" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I795" s="22">
+      <c r="I795" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22110,7 +22042,7 @@
       <c r="H796" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I796" s="22">
+      <c r="I796" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22137,7 +22069,7 @@
       <c r="H797" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I797" s="22">
+      <c r="I797" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22164,7 +22096,7 @@
       <c r="H798" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I798" s="22">
+      <c r="I798" s="16">
         <v>1</v>
       </c>
     </row>
@@ -22191,7 +22123,7 @@
       <c r="H799" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I799" s="22">
+      <c r="I799" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22218,7 +22150,7 @@
       <c r="H800" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I800" s="22">
+      <c r="I800" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22245,7 +22177,7 @@
       <c r="H801" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I801" s="22">
+      <c r="I801" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22272,7 +22204,7 @@
       <c r="H802" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I802" s="22">
+      <c r="I802" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22299,7 +22231,7 @@
       <c r="H803" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I803" s="22">
+      <c r="I803" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22326,7 +22258,7 @@
       <c r="H804" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I804" s="22">
+      <c r="I804" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22353,7 +22285,7 @@
       <c r="H805" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I805" s="22">
+      <c r="I805" s="16">
         <v>1</v>
       </c>
     </row>
@@ -22380,7 +22312,7 @@
       <c r="H806" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I806" s="22">
+      <c r="I806" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22407,7 +22339,7 @@
       <c r="H807" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I807" s="22">
+      <c r="I807" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22434,7 +22366,7 @@
       <c r="H808" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I808" s="22">
+      <c r="I808" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22461,7 +22393,7 @@
       <c r="H809" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I809" s="22">
+      <c r="I809" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22488,7 +22420,7 @@
       <c r="H810" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I810" s="22">
+      <c r="I810" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22515,7 +22447,7 @@
       <c r="H811" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I811" s="22">
+      <c r="I811" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22542,7 +22474,7 @@
       <c r="H812" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I812" s="22">
+      <c r="I812" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22569,7 +22501,7 @@
       <c r="H813" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I813" s="22">
+      <c r="I813" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22596,7 +22528,7 @@
       <c r="H814" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I814" s="22">
+      <c r="I814" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22623,7 +22555,7 @@
       <c r="H815" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I815" s="22">
+      <c r="I815" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22650,7 +22582,7 @@
       <c r="H816" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I816" s="22">
+      <c r="I816" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22677,7 +22609,7 @@
       <c r="H817" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I817" s="22">
+      <c r="I817" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22704,7 +22636,7 @@
       <c r="H818" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I818" s="22">
+      <c r="I818" s="16">
         <v>1</v>
       </c>
     </row>
@@ -22731,7 +22663,7 @@
       <c r="H819" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I819" s="22">
+      <c r="I819" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22758,7 +22690,7 @@
       <c r="H820" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I820" s="22">
+      <c r="I820" s="16">
         <v>1</v>
       </c>
     </row>
@@ -22785,7 +22717,7 @@
       <c r="H821" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I821" s="22">
+      <c r="I821" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22812,7 +22744,7 @@
       <c r="H822" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I822" s="22">
+      <c r="I822" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22839,7 +22771,7 @@
       <c r="H823" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I823" s="22">
+      <c r="I823" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22866,7 +22798,7 @@
       <c r="H824" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I824" s="22">
+      <c r="I824" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22893,7 +22825,7 @@
       <c r="H825" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I825" s="22">
+      <c r="I825" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22920,7 +22852,7 @@
       <c r="H826" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I826" s="22">
+      <c r="I826" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22947,7 +22879,7 @@
       <c r="H827" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I827" s="22">
+      <c r="I827" s="16">
         <v>0</v>
       </c>
     </row>
@@ -22974,7 +22906,7 @@
       <c r="H828" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I828" s="22">
+      <c r="I828" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23001,7 +22933,7 @@
       <c r="H829" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I829" s="22">
+      <c r="I829" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23028,7 +22960,7 @@
       <c r="H830" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I830" s="22">
+      <c r="I830" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23055,7 +22987,7 @@
       <c r="H831" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I831" s="22">
+      <c r="I831" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23082,7 +23014,7 @@
       <c r="H832" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I832" s="22">
+      <c r="I832" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23109,7 +23041,7 @@
       <c r="H833" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I833" s="22">
+      <c r="I833" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23136,7 +23068,7 @@
       <c r="H834" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I834" s="22">
+      <c r="I834" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23163,7 +23095,7 @@
       <c r="H835" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I835" s="22">
+      <c r="I835" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23190,7 +23122,7 @@
       <c r="H836" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I836" s="22">
+      <c r="I836" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23217,7 +23149,7 @@
       <c r="H837" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I837" s="22">
+      <c r="I837" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23244,7 +23176,7 @@
       <c r="H838" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I838" s="22">
+      <c r="I838" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23271,7 +23203,7 @@
       <c r="H839" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I839" s="22">
+      <c r="I839" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23298,7 +23230,7 @@
       <c r="H840" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I840" s="22">
+      <c r="I840" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23325,7 +23257,7 @@
       <c r="H841" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I841" s="22">
+      <c r="I841" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23352,7 +23284,7 @@
       <c r="H842" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I842" s="22">
+      <c r="I842" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23379,7 +23311,7 @@
       <c r="H843" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I843" s="22">
+      <c r="I843" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23406,7 +23338,7 @@
       <c r="H844" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I844" s="22">
+      <c r="I844" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23433,7 +23365,7 @@
       <c r="H845" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I845" s="22">
+      <c r="I845" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23460,7 +23392,7 @@
       <c r="H846" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I846" s="22">
+      <c r="I846" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23487,7 +23419,7 @@
       <c r="H847" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I847" s="22">
+      <c r="I847" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23514,7 +23446,7 @@
       <c r="H848" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I848" s="22">
+      <c r="I848" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23541,7 +23473,7 @@
       <c r="H849" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I849" s="22">
+      <c r="I849" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23568,7 +23500,7 @@
       <c r="H850" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I850" s="22">
+      <c r="I850" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23595,7 +23527,7 @@
       <c r="H851" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I851" s="22">
+      <c r="I851" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23622,7 +23554,7 @@
       <c r="H852" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I852" s="22">
+      <c r="I852" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23649,7 +23581,7 @@
       <c r="H853" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I853" s="22">
+      <c r="I853" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23676,7 +23608,7 @@
       <c r="H854" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I854" s="22">
+      <c r="I854" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23703,7 +23635,7 @@
       <c r="H855" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I855" s="22">
+      <c r="I855" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23730,7 +23662,7 @@
       <c r="H856" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I856" s="22">
+      <c r="I856" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23757,7 +23689,7 @@
       <c r="H857" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I857" s="22">
+      <c r="I857" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23784,7 +23716,7 @@
       <c r="H858" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I858" s="22">
+      <c r="I858" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23811,7 +23743,7 @@
       <c r="H859" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I859" s="22">
+      <c r="I859" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23838,7 +23770,7 @@
       <c r="H860" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I860" s="22">
+      <c r="I860" s="16">
         <v>1</v>
       </c>
     </row>
@@ -23865,7 +23797,7 @@
       <c r="H861" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I861" s="22">
+      <c r="I861" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23892,7 +23824,7 @@
       <c r="H862" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I862" s="22">
+      <c r="I862" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23919,7 +23851,7 @@
       <c r="H863" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I863" s="22">
+      <c r="I863" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23946,7 +23878,7 @@
       <c r="H864" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I864" s="22">
+      <c r="I864" s="16">
         <v>0</v>
       </c>
     </row>
@@ -23973,7 +23905,7 @@
       <c r="H865" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I865" s="22">
+      <c r="I865" s="16">
         <v>1</v>
       </c>
     </row>
@@ -24000,7 +23932,7 @@
       <c r="H866" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I866" s="22">
+      <c r="I866" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24027,7 +23959,7 @@
       <c r="H867" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I867" s="22">
+      <c r="I867" s="16">
         <v>1</v>
       </c>
     </row>
@@ -24054,7 +23986,7 @@
       <c r="H868" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I868" s="22">
+      <c r="I868" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24081,7 +24013,7 @@
       <c r="H869" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I869" s="22">
+      <c r="I869" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24108,7 +24040,7 @@
       <c r="H870" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I870" s="22">
+      <c r="I870" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24135,7 +24067,7 @@
       <c r="H871" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I871" s="22">
+      <c r="I871" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24162,7 +24094,7 @@
       <c r="H872" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I872" s="22">
+      <c r="I872" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24189,7 +24121,7 @@
       <c r="H873" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I873" s="22">
+      <c r="I873" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24216,7 +24148,7 @@
       <c r="H874" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I874" s="22">
+      <c r="I874" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24243,7 +24175,7 @@
       <c r="H875" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I875" s="22">
+      <c r="I875" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24270,7 +24202,7 @@
       <c r="H876" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I876" s="22">
+      <c r="I876" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24297,7 +24229,7 @@
       <c r="H877" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I877" s="22">
+      <c r="I877" s="16">
         <v>1</v>
       </c>
     </row>
@@ -24324,7 +24256,7 @@
       <c r="H878" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I878" s="22">
+      <c r="I878" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24351,7 +24283,7 @@
       <c r="H879" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I879" s="22">
+      <c r="I879" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24378,7 +24310,7 @@
       <c r="H880" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I880" s="22">
+      <c r="I880" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24405,7 +24337,7 @@
       <c r="H881" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I881" s="22">
+      <c r="I881" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24432,7 +24364,7 @@
       <c r="H882" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I882" s="22">
+      <c r="I882" s="16">
         <v>1</v>
       </c>
     </row>
@@ -24459,7 +24391,7 @@
       <c r="H883" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I883" s="22">
+      <c r="I883" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24486,7 +24418,7 @@
       <c r="H884" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I884" s="22">
+      <c r="I884" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24513,7 +24445,7 @@
       <c r="H885" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I885" s="22">
+      <c r="I885" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24540,7 +24472,7 @@
       <c r="H886" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I886" s="22">
+      <c r="I886" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24567,7 +24499,7 @@
       <c r="H887" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I887" s="22">
+      <c r="I887" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24594,7 +24526,7 @@
       <c r="H888" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I888" s="22">
+      <c r="I888" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24621,7 +24553,7 @@
       <c r="H889" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I889" s="22">
+      <c r="I889" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24648,7 +24580,7 @@
       <c r="H890" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I890" s="22">
+      <c r="I890" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24675,7 +24607,7 @@
       <c r="H891" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I891" s="22">
+      <c r="I891" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24702,7 +24634,7 @@
       <c r="H892" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I892" s="22">
+      <c r="I892" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24729,7 +24661,7 @@
       <c r="H893" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I893" s="22">
+      <c r="I893" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24756,7 +24688,7 @@
       <c r="H894" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I894" s="22">
+      <c r="I894" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24783,7 +24715,7 @@
       <c r="H895" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I895" s="22">
+      <c r="I895" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24810,7 +24742,7 @@
       <c r="H896" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I896" s="22">
+      <c r="I896" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24837,7 +24769,7 @@
       <c r="H897" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I897" s="22">
+      <c r="I897" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24864,7 +24796,7 @@
       <c r="H898" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I898" s="22">
+      <c r="I898" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24891,7 +24823,7 @@
       <c r="H899" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I899" s="22">
+      <c r="I899" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24918,7 +24850,7 @@
       <c r="H900" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I900" s="22">
+      <c r="I900" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24945,7 +24877,7 @@
       <c r="H901" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I901" s="22">
+      <c r="I901" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24972,7 +24904,7 @@
       <c r="H902" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I902" s="22">
+      <c r="I902" s="16">
         <v>0</v>
       </c>
     </row>
@@ -24999,7 +24931,7 @@
       <c r="H903" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I903" s="22">
+      <c r="I903" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25026,7 +24958,7 @@
       <c r="H904" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I904" s="22">
+      <c r="I904" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25053,7 +24985,7 @@
       <c r="H905" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I905" s="22">
+      <c r="I905" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25080,7 +25012,7 @@
       <c r="H906" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I906" s="22">
+      <c r="I906" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25107,7 +25039,7 @@
       <c r="H907" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I907" s="22">
+      <c r="I907" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25134,7 +25066,7 @@
       <c r="H908" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I908" s="22">
+      <c r="I908" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25161,7 +25093,7 @@
       <c r="H909" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I909" s="22">
+      <c r="I909" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25188,7 +25120,7 @@
       <c r="H910" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I910" s="22">
+      <c r="I910" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25217,7 +25149,7 @@
       <c r="H911" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I911" s="22">
+      <c r="I911" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25244,7 +25176,7 @@
       <c r="H912" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I912" s="22">
+      <c r="I912" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25271,7 +25203,7 @@
       <c r="H913" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I913" s="22">
+      <c r="I913" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25298,7 +25230,7 @@
       <c r="H914" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I914" s="22">
+      <c r="I914" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25325,7 +25257,7 @@
       <c r="H915" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I915" s="22">
+      <c r="I915" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25352,7 +25284,7 @@
       <c r="H916" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I916" s="22">
+      <c r="I916" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25379,7 +25311,7 @@
       <c r="H917" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I917" s="22">
+      <c r="I917" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25406,7 +25338,7 @@
       <c r="H918" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I918" s="22">
+      <c r="I918" s="16">
         <v>1</v>
       </c>
     </row>
@@ -25435,7 +25367,7 @@
       <c r="H919" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I919" s="22">
+      <c r="I919" s="16">
         <v>1</v>
       </c>
     </row>
@@ -25462,7 +25394,7 @@
       <c r="H920" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I920" s="22">
+      <c r="I920" s="16">
         <v>1</v>
       </c>
     </row>
@@ -25489,7 +25421,7 @@
       <c r="H921" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I921" s="22">
+      <c r="I921" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25516,7 +25448,7 @@
       <c r="H922" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I922" s="22">
+      <c r="I922" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25543,7 +25475,7 @@
       <c r="H923" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I923" s="22">
+      <c r="I923" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25570,7 +25502,7 @@
       <c r="H924" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I924" s="22">
+      <c r="I924" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25597,7 +25529,7 @@
       <c r="H925" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I925" s="22">
+      <c r="I925" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25624,7 +25556,7 @@
       <c r="H926" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I926" s="22">
+      <c r="I926" s="16">
         <v>1</v>
       </c>
     </row>
@@ -25651,7 +25583,7 @@
       <c r="H927" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I927" s="22">
+      <c r="I927" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25678,7 +25610,7 @@
       <c r="H928" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I928" s="22">
+      <c r="I928" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25705,7 +25637,7 @@
       <c r="H929" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I929" s="22">
+      <c r="I929" s="16">
         <v>1</v>
       </c>
     </row>
@@ -25732,7 +25664,7 @@
       <c r="H930" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I930" s="22">
+      <c r="I930" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25759,7 +25691,7 @@
       <c r="H931" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I931" s="22">
+      <c r="I931" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25786,7 +25718,7 @@
       <c r="H932" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I932" s="22">
+      <c r="I932" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25813,7 +25745,7 @@
       <c r="H933" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I933" s="22">
+      <c r="I933" s="16">
         <v>1</v>
       </c>
     </row>
@@ -25840,7 +25772,7 @@
       <c r="H934" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I934" s="22">
+      <c r="I934" s="16">
         <v>1</v>
       </c>
     </row>
@@ -25867,7 +25799,7 @@
       <c r="H935" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I935" s="22">
+      <c r="I935" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25894,7 +25826,7 @@
       <c r="H936" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I936" s="22">
+      <c r="I936" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25921,7 +25853,7 @@
       <c r="H937" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I937" s="22">
+      <c r="I937" s="16">
         <v>1</v>
       </c>
     </row>
@@ -25948,7 +25880,7 @@
       <c r="H938" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I938" s="22">
+      <c r="I938" s="16">
         <v>0</v>
       </c>
     </row>
@@ -25975,7 +25907,7 @@
       <c r="H939" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I939" s="22">
+      <c r="I939" s="16">
         <v>1</v>
       </c>
     </row>
@@ -26002,7 +25934,7 @@
       <c r="H940" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I940" s="22">
+      <c r="I940" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26029,7 +25961,7 @@
       <c r="H941" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I941" s="22">
+      <c r="I941" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26056,7 +25988,7 @@
       <c r="H942" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I942" s="22">
+      <c r="I942" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26083,7 +26015,7 @@
       <c r="H943" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I943" s="22">
+      <c r="I943" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26110,7 +26042,7 @@
       <c r="H944" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I944" s="22">
+      <c r="I944" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26137,7 +26069,7 @@
       <c r="H945" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I945" s="22">
+      <c r="I945" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26164,7 +26096,7 @@
       <c r="H946" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I946" s="22">
+      <c r="I946" s="16">
         <v>1</v>
       </c>
     </row>
@@ -26191,7 +26123,7 @@
       <c r="H947" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I947" s="22">
+      <c r="I947" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26218,7 +26150,7 @@
       <c r="H948" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I948" s="22">
+      <c r="I948" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26245,7 +26177,7 @@
       <c r="H949" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I949" s="22">
+      <c r="I949" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26272,7 +26204,7 @@
       <c r="H950" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I950" s="22">
+      <c r="I950" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26299,7 +26231,7 @@
       <c r="H951" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I951" s="22">
+      <c r="I951" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26326,7 +26258,7 @@
       <c r="H952" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I952" s="22">
+      <c r="I952" s="16">
         <v>1</v>
       </c>
     </row>
@@ -26353,7 +26285,7 @@
       <c r="H953" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I953" s="22">
+      <c r="I953" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26380,7 +26312,7 @@
       <c r="H954" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I954" s="22">
+      <c r="I954" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26407,7 +26339,7 @@
       <c r="H955" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I955" s="22">
+      <c r="I955" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26434,7 +26366,7 @@
       <c r="H956" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I956" s="22">
+      <c r="I956" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26461,7 +26393,7 @@
       <c r="H957" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I957" s="22">
+      <c r="I957" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26488,7 +26420,7 @@
       <c r="H958" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I958" s="22">
+      <c r="I958" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26515,7 +26447,7 @@
       <c r="H959" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I959" s="22">
+      <c r="I959" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26542,7 +26474,7 @@
       <c r="H960" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I960" s="22">
+      <c r="I960" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26569,7 +26501,7 @@
       <c r="H961" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I961" s="22">
+      <c r="I961" s="16">
         <v>1</v>
       </c>
     </row>
@@ -26596,7 +26528,7 @@
       <c r="H962" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I962" s="22">
+      <c r="I962" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26623,7 +26555,7 @@
       <c r="H963" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I963" s="22">
+      <c r="I963" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26650,7 +26582,7 @@
       <c r="H964" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I964" s="22">
+      <c r="I964" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26677,7 +26609,7 @@
       <c r="H965" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I965" s="22">
+      <c r="I965" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26704,7 +26636,7 @@
       <c r="H966" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I966" s="22">
+      <c r="I966" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26731,7 +26663,7 @@
       <c r="H967" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I967" s="22">
+      <c r="I967" s="16">
         <v>0</v>
       </c>
     </row>
@@ -26739,7 +26671,7 @@
   <customSheetViews>
     <customSheetView guid="{DBD90379-3EC3-4B16-840F-2A89ED9418D2}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:F967" xr:uid="{00000000-0000-0000-0000-000000000000}">
+      <autoFilter ref="A1:F967" xr:uid="{33B5EB11-F582-4EFF-B7A0-041D37810300}">
         <filterColumn colId="2">
           <filters>
             <filter val="1"/>
@@ -26751,1084 +26683,4 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="98.6640625" customWidth="1"/>
-    <col min="2" max="6" width="14.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
 </file>